--- a/xc1-DAT_comparison.xlsx
+++ b/xc1-DAT_comparison.xlsx
@@ -441,28 +441,28 @@
         <v>-50</v>
       </c>
       <c r="B2">
-        <v>-0.000185736673191883</v>
+        <v>-0.000185736673192771</v>
       </c>
       <c r="C2">
         <v>-0.00046103525196628</v>
       </c>
       <c r="D2">
-        <v>-0.000440512285250882</v>
+        <v>-0.000440512285251327</v>
       </c>
       <c r="E2">
         <v>0.000333260360414034</v>
       </c>
       <c r="F2">
-        <v>1.01911587538916e-05</v>
+        <v>1.01911587542247e-05</v>
       </c>
       <c r="G2">
-        <v>-0.000144114810339047</v>
+        <v>-0.000144114810338603</v>
       </c>
       <c r="H2">
-        <v>-0.000464801364053774</v>
+        <v>-0.000464801364053663</v>
       </c>
       <c r="I2">
-        <v>0.000389905997556061</v>
+        <v>0.000389905997556395</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -473,25 +473,25 @@
         <v>-0.000331324576996472</v>
       </c>
       <c r="C3">
-        <v>-0.000351137996218664</v>
+        <v>-0.00035113799621822</v>
       </c>
       <c r="D3">
         <v>-0.000298374271435975</v>
       </c>
       <c r="E3">
-        <v>-0.000113332465842664</v>
+        <v>-0.000113332465841331</v>
       </c>
       <c r="F3">
-        <v>-0.000359792042131879</v>
+        <v>-0.000359792042131657</v>
       </c>
       <c r="G3">
-        <v>-0.000432149705629881</v>
+        <v>-0.000432149705629659</v>
       </c>
       <c r="H3">
-        <v>-0.000373847383369708</v>
+        <v>-0.000373847383369763</v>
       </c>
       <c r="I3">
-        <v>-0.000475746521482634</v>
+        <v>-0.000475746521482301</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -511,16 +511,16 @@
         <v>0.000496041262749713</v>
       </c>
       <c r="F4">
-        <v>-0.000452731002040574</v>
+        <v>-0.000452731002040352</v>
       </c>
       <c r="G4">
-        <v>-0.000438381173536895</v>
+        <v>-0.000438381173536451</v>
       </c>
       <c r="H4">
-        <v>0.000138150386700814</v>
+        <v>0.000138150386700897</v>
       </c>
       <c r="I4">
-        <v>-9.82461558023395e-05</v>
+        <v>-9.82461558021175e-05</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -528,28 +528,28 @@
         <v>-47</v>
       </c>
       <c r="B5">
-        <v>0.000388529455255693</v>
+        <v>0.000388529455256581</v>
       </c>
       <c r="C5">
-        <v>0.000310379905768876</v>
+        <v>0.000310379905769764</v>
       </c>
       <c r="D5">
         <v>-0.000311328445837145</v>
       </c>
       <c r="E5">
-        <v>0.000325471477959027</v>
+        <v>0.000325471477959915</v>
       </c>
       <c r="F5">
-        <v>-0.000147544757389317</v>
+        <v>-0.000147544757388873</v>
       </c>
       <c r="G5">
-        <v>-3.58027421691887e-05</v>
+        <v>-3.58027421689666e-05</v>
       </c>
       <c r="H5">
-        <v>9.12960513243244e-05</v>
+        <v>9.12960513244354e-05</v>
       </c>
       <c r="I5">
-        <v>-0.000352378682421772</v>
+        <v>-0.00035237868242155</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -557,28 +557,28 @@
         <v>-46</v>
       </c>
       <c r="B6">
-        <v>-0.000229009299676175</v>
+        <v>-0.000229009299676619</v>
       </c>
       <c r="C6">
-        <v>0.000490828885885364</v>
+        <v>0.000490828885884476</v>
       </c>
       <c r="D6">
         <v>6.35325318976143e-05</v>
       </c>
       <c r="E6">
-        <v>-0.000447877777270289</v>
+        <v>-0.000447877777271621</v>
       </c>
       <c r="F6">
-        <v>-0.000321328580631164</v>
+        <v>-0.000321328580632274</v>
       </c>
       <c r="G6">
-        <v>-9.33222153443047e-05</v>
+        <v>-9.33222153451929e-05</v>
       </c>
       <c r="H6">
-        <v>-0.000494596918323847</v>
+        <v>-0.000494596918323736</v>
       </c>
       <c r="I6">
-        <v>-0.000108749092944116</v>
+        <v>-0.000108749092945004</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -586,16 +586,16 @@
         <v>-45</v>
       </c>
       <c r="B7">
-        <v>0.000210765462244744</v>
+        <v>0.000210765462245632</v>
       </c>
       <c r="C7">
-        <v>1.7906415727964e-05</v>
+        <v>1.79064157284081e-05</v>
       </c>
       <c r="D7">
         <v>-0.000272699874021676</v>
       </c>
       <c r="E7">
-        <v>0.00036829584512299</v>
+        <v>0.000368295845123878</v>
       </c>
       <c r="F7">
         <v>0.000175157984090291</v>
@@ -604,7 +604,7 @@
         <v>-0.00047640938460658</v>
       </c>
       <c r="H7">
-        <v>0.000399742798400826</v>
+        <v>0.000399742798400854</v>
       </c>
       <c r="I7">
         <v>-0.000234392389704352</v>
@@ -615,28 +615,28 @@
         <v>-44</v>
       </c>
       <c r="B8">
-        <v>7.8656385671394e-07</v>
+        <v>7.86563857602118e-07</v>
       </c>
       <c r="C8">
-        <v>0.000247500610624396</v>
+        <v>0.00024750061062484</v>
       </c>
       <c r="D8">
         <v>-3.59928053308423e-05</v>
       </c>
       <c r="E8">
-        <v>-1.60256394892144e-05</v>
+        <v>-1.60256394887703e-05</v>
       </c>
       <c r="F8">
-        <v>0.000455933573403344</v>
+        <v>0.000455933573404232</v>
       </c>
       <c r="G8">
-        <v>-4.79488310147769e-05</v>
+        <v>-4.79488310138887e-05</v>
       </c>
       <c r="H8">
-        <v>-0.00020722220734895</v>
+        <v>-0.000207222207348895</v>
       </c>
       <c r="I8">
-        <v>0.000406411209247892</v>
+        <v>0.00040641120924878</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -644,28 +644,28 @@
         <v>-43</v>
       </c>
       <c r="B9">
-        <v>0.000453631749667505</v>
+        <v>0.000453631749665728</v>
       </c>
       <c r="C9">
-        <v>-0.000448216616879549</v>
+        <v>-0.000448216616881325</v>
       </c>
       <c r="D9">
-        <v>6.06147251240863e-05</v>
+        <v>6.06147251223099e-05</v>
       </c>
       <c r="E9">
         <v>-0.000370056666851859</v>
       </c>
       <c r="F9">
-        <v>-0.000320614075358439</v>
+        <v>-0.000320614075357772</v>
       </c>
       <c r="G9">
-        <v>0.000330669507602854</v>
+        <v>0.00033066950760352</v>
       </c>
       <c r="H9">
-        <v>-0.000298103237300867</v>
+        <v>-0.000298103237300923</v>
       </c>
       <c r="I9">
-        <v>-4.89191877501849e-05</v>
+        <v>-4.89191877495188e-05</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -685,16 +685,16 @@
         <v>-0.000438381463191195</v>
       </c>
       <c r="F10">
-        <v>-3.69320787816374e-05</v>
+        <v>-3.69320787805272e-05</v>
       </c>
       <c r="G10">
-        <v>-0.000201811605426538</v>
+        <v>-0.000201811605425428</v>
       </c>
       <c r="H10">
-        <v>0.000143176922443394</v>
+        <v>0.000143176922443505</v>
       </c>
       <c r="I10">
-        <v>-0.000462599290605326</v>
+        <v>-0.000462599290604215</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -705,25 +705,25 @@
         <v>-0.000328805013046995</v>
       </c>
       <c r="C11">
-        <v>-4.99859563571903e-05</v>
+        <v>-4.99859563589666e-05</v>
       </c>
       <c r="D11">
         <v>-2.95104229377507e-05</v>
       </c>
       <c r="E11">
-        <v>6.37079407148633e-05</v>
+        <v>6.37079407126429e-05</v>
       </c>
       <c r="F11">
-        <v>0.000443603457734199</v>
+        <v>0.000443603457734643</v>
       </c>
       <c r="G11">
-        <v>0.00049181722400804</v>
+        <v>0.000491817224008484</v>
       </c>
       <c r="H11">
-        <v>0.00013121328136409</v>
+        <v>0.000131213281364201</v>
       </c>
       <c r="I11">
-        <v>0.000301867765186259</v>
+        <v>0.000301867765186703</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -743,16 +743,16 @@
         <v>0.00045584775200247</v>
       </c>
       <c r="F12">
-        <v>0.000256933128075953</v>
+        <v>0.000256933128076398</v>
       </c>
       <c r="G12">
-        <v>-0.000454767373184284</v>
+        <v>-0.00045476737318384</v>
       </c>
       <c r="H12">
-        <v>-0.000320928525451208</v>
+        <v>-0.000320928525451153</v>
       </c>
       <c r="I12">
-        <v>0.000377681291100718</v>
+        <v>0.000377681291101162</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -760,13 +760,13 @@
         <v>-39</v>
       </c>
       <c r="B13">
-        <v>-0.000356664480427149</v>
+        <v>-0.000356664480425817</v>
       </c>
       <c r="C13">
-        <v>0.000477708598161541</v>
+        <v>0.00047770859816243</v>
       </c>
       <c r="D13">
-        <v>-0.000375445657351925</v>
+        <v>-0.000375445657350593</v>
       </c>
       <c r="E13">
         <v>9.93459868983138e-05</v>
@@ -775,13 +775,13 @@
         <v>-0.000476985808289809</v>
       </c>
       <c r="G13">
-        <v>8.62240189800634e-05</v>
+        <v>8.62240189796193e-05</v>
       </c>
       <c r="H13">
-        <v>-0.000201556873764025</v>
+        <v>-0.000201556873764053</v>
       </c>
       <c r="I13">
-        <v>-0.000107659756806378</v>
+        <v>-0.0001076597568066</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -789,28 +789,28 @@
         <v>-38</v>
       </c>
       <c r="B14">
-        <v>-0.000419472149865374</v>
+        <v>-0.000419472149865818</v>
       </c>
       <c r="C14">
-        <v>0.000231889723534273</v>
+        <v>0.000231889723535161</v>
       </c>
       <c r="D14">
-        <v>6.80382447404426e-05</v>
+        <v>6.80382447399985e-05</v>
       </c>
       <c r="E14">
-        <v>0.000405142485751409</v>
+        <v>0.000405142485752741</v>
       </c>
       <c r="F14">
-        <v>0.000350400505901627</v>
+        <v>0.000350400505902293</v>
       </c>
       <c r="G14">
-        <v>0.000233975259046559</v>
+        <v>0.000233975259047225</v>
       </c>
       <c r="H14">
-        <v>0.000500110330871162</v>
+        <v>0.000500110330871273</v>
       </c>
       <c r="I14">
-        <v>-3.51788084420601e-05</v>
+        <v>-3.5178808441394e-05</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -818,28 +818,28 @@
         <v>-37</v>
       </c>
       <c r="B15">
-        <v>0.000322656288042289</v>
+        <v>0.000322656288040957</v>
       </c>
       <c r="C15">
         <v>-0.00044085782730896</v>
       </c>
       <c r="D15">
-        <v>-0.00017300212651028</v>
+        <v>-0.000173002126511168</v>
       </c>
       <c r="E15">
-        <v>-0.000156960654240645</v>
+        <v>-0.000156960654238869</v>
       </c>
       <c r="F15">
-        <v>-0.000154668268136593</v>
+        <v>-0.000154668268135483</v>
       </c>
       <c r="G15">
-        <v>9.59938274878169e-05</v>
+        <v>9.59938274889272e-05</v>
       </c>
       <c r="H15">
-        <v>-0.000205141641236972</v>
+        <v>-0.000205141641236861</v>
       </c>
       <c r="I15">
-        <v>-0.000297674196538589</v>
+        <v>-0.000297674196537479</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -847,28 +847,28 @@
         <v>-36</v>
       </c>
       <c r="B16">
-        <v>0.000250038904423988</v>
+        <v>0.000250038904425764</v>
       </c>
       <c r="C16">
-        <v>-0.000108001472257868</v>
+        <v>-0.00010800147225698</v>
       </c>
       <c r="D16">
-        <v>7.49040485015229e-06</v>
+        <v>7.49040485192864e-06</v>
       </c>
       <c r="E16">
-        <v>-4.78445641132197e-05</v>
+        <v>-4.78445641136638e-05</v>
       </c>
       <c r="F16">
-        <v>8.87678698917593e-05</v>
+        <v>8.87678698915373e-05</v>
       </c>
       <c r="G16">
-        <v>-0.000235271199618525</v>
+        <v>-0.000235271199618747</v>
       </c>
       <c r="H16">
-        <v>-0.00030498868925305</v>
+        <v>-0.000304988689252939</v>
       </c>
       <c r="I16">
-        <v>0.000196611125233392</v>
+        <v>0.00019661112523317</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -888,16 +888,16 @@
         <v>0.000352393724286859</v>
       </c>
       <c r="F17">
-        <v>0.000131477600712859</v>
+        <v>0.000131477600711971</v>
       </c>
       <c r="G17">
-        <v>0.000313960924340106</v>
+        <v>0.000313960924339218</v>
       </c>
       <c r="H17">
         <v>0.000216799755300257</v>
       </c>
       <c r="I17">
-        <v>-0.000480047095214653</v>
+        <v>-0.000480047095215541</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -920,13 +920,13 @@
         <v>2.83158321887633e-05</v>
       </c>
       <c r="G18">
-        <v>-0.000204895032170693</v>
+        <v>-0.000204895032170915</v>
       </c>
       <c r="H18">
-        <v>0.000383793750931838</v>
+        <v>0.000383793750931893</v>
       </c>
       <c r="I18">
-        <v>-0.000279154677685245</v>
+        <v>-0.000279154677685467</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -934,28 +934,28 @@
         <v>-33</v>
       </c>
       <c r="B19">
-        <v>-0.00014841725743775</v>
+        <v>-0.000148417257435973</v>
       </c>
       <c r="C19">
-        <v>4.49672042215354e-05</v>
+        <v>4.49672042242e-05</v>
       </c>
       <c r="D19">
-        <v>-0.000192935154268881</v>
+        <v>-0.000192935154267992</v>
       </c>
       <c r="E19">
-        <v>-1.84152676312443e-05</v>
+        <v>-1.84152676276916e-05</v>
       </c>
       <c r="F19">
-        <v>-0.000230504352570993</v>
+        <v>-0.00023050435256966</v>
       </c>
       <c r="G19">
-        <v>0.000233638597464392</v>
+        <v>0.000233638597465724</v>
       </c>
       <c r="H19">
-        <v>0.0002316339956277</v>
+        <v>0.000231633995627811</v>
       </c>
       <c r="I19">
-        <v>-0.000180386026006119</v>
+        <v>-0.000180386026004786</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -963,28 +963,28 @@
         <v>-32</v>
       </c>
       <c r="B20">
-        <v>0.000125019916112024</v>
+        <v>0.0001250199161138</v>
       </c>
       <c r="C20">
-        <v>0.000380139599744922</v>
+        <v>0.000380139599746698</v>
       </c>
       <c r="D20">
-        <v>-0.000210539669060594</v>
+        <v>-0.000210539669058818</v>
       </c>
       <c r="E20">
         <v>-4.03303117302301e-05</v>
       </c>
       <c r="F20">
-        <v>0.000340563024454621</v>
+        <v>0.000340563024455953</v>
       </c>
       <c r="G20">
-        <v>-0.00037403529004898</v>
+        <v>-0.000374035290048091</v>
       </c>
       <c r="H20">
-        <v>-0.000185755998103054</v>
+        <v>-0.000185755998102999</v>
       </c>
       <c r="I20">
-        <v>-0.000195783020173312</v>
+        <v>-0.000195783020172424</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -992,28 +992,28 @@
         <v>-31</v>
       </c>
       <c r="B21">
-        <v>0.000266873100881249</v>
+        <v>0.000266873100883913</v>
       </c>
       <c r="C21">
-        <v>-0.000477544084688475</v>
+        <v>-0.00047754408468581</v>
       </c>
       <c r="D21">
-        <v>3.91257537319945e-05</v>
+        <v>3.9125753734659e-05</v>
       </c>
       <c r="E21">
-        <v>-0.000256219769594779</v>
+        <v>-0.000256219769593891</v>
       </c>
       <c r="F21">
-        <v>-0.000313583647785887</v>
+        <v>-0.000313583647784998</v>
       </c>
       <c r="G21">
-        <v>-6.28752281959244e-05</v>
+        <v>-6.28752281950362e-05</v>
       </c>
       <c r="H21">
-        <v>0.000211571787355314</v>
+        <v>0.000211571787355536</v>
       </c>
       <c r="I21">
-        <v>-0.000373364953755395</v>
+        <v>-0.000373364953754507</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1024,13 +1024,13 @@
         <v>0.000462345514339546</v>
       </c>
       <c r="C22">
-        <v>-0.000336257346580382</v>
+        <v>-0.000336257346579494</v>
       </c>
       <c r="D22">
         <v>-0.000207637481435263</v>
       </c>
       <c r="E22">
-        <v>-0.000491714901388107</v>
+        <v>-0.000491714901387219</v>
       </c>
       <c r="F22">
         <v>-0.000294463541457457</v>
@@ -1039,7 +1039,7 @@
         <v>9.99048621865839e-05</v>
       </c>
       <c r="H22">
-        <v>-0.000461355823759002</v>
+        <v>-0.000461355823758947</v>
       </c>
       <c r="I22">
         <v>0.000200406301855249</v>
@@ -1050,13 +1050,13 @@
         <v>-29</v>
       </c>
       <c r="B23">
-        <v>-0.000146062513032952</v>
+        <v>-0.000146062513036505</v>
       </c>
       <c r="C23">
-        <v>-0.0001059280326281</v>
+        <v>-0.000105928032630764</v>
       </c>
       <c r="D23">
-        <v>3.40607994493425e-05</v>
+        <v>3.40607994457898e-05</v>
       </c>
       <c r="E23">
         <v>-0.000461106733053107</v>
@@ -1068,7 +1068,7 @@
         <v>1.60032263933907e-05</v>
       </c>
       <c r="H23">
-        <v>-4.47307841108802e-05</v>
+        <v>-4.47307841109357e-05</v>
       </c>
       <c r="I23">
         <v>0.000400042120820121</v>
@@ -1079,28 +1079,28 @@
         <v>-28</v>
       </c>
       <c r="B24">
-        <v>0.000461823577594167</v>
+        <v>0.000461823577592391</v>
       </c>
       <c r="C24">
-        <v>0.000175443840803702</v>
+        <v>0.000175443840802814</v>
       </c>
       <c r="D24">
-        <v>0.000468526692199767</v>
+        <v>0.00046852669219799</v>
       </c>
       <c r="E24">
         <v>0.000207995086848989</v>
       </c>
       <c r="F24">
-        <v>0.000173464353915076</v>
+        <v>0.000173464353915964</v>
       </c>
       <c r="G24">
-        <v>-0.00043996160883264</v>
+        <v>-0.000439961608831752</v>
       </c>
       <c r="H24">
-        <v>-0.000324945674358867</v>
+        <v>-0.000324945674358701</v>
       </c>
       <c r="I24">
-        <v>6.32538943357019e-05</v>
+        <v>6.32538943365901e-05</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1111,25 +1111,25 @@
         <v>0.000176545339249046</v>
       </c>
       <c r="C25">
-        <v>0.000311847980444035</v>
+        <v>0.000311847980442259</v>
       </c>
       <c r="D25">
         <v>0.000497501637461539</v>
       </c>
       <c r="E25">
-        <v>-7.00613768227498e-05</v>
+        <v>-7.00613768245262e-05</v>
       </c>
       <c r="F25">
-        <v>0.000269589658565828</v>
+        <v>0.000269589658567604</v>
       </c>
       <c r="G25">
-        <v>-0.000412762614401263</v>
+        <v>-0.000412762614399931</v>
       </c>
       <c r="H25">
-        <v>-2.84700099622004e-05</v>
+        <v>-2.84700099620339e-05</v>
       </c>
       <c r="I25">
-        <v>-2.89801372366227e-06</v>
+        <v>-2.89801372188592e-06</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1137,28 +1137,28 @@
         <v>-26</v>
       </c>
       <c r="B26">
-        <v>-0.000263669695055313</v>
+        <v>-0.000263669695057089</v>
       </c>
       <c r="C26">
-        <v>-8.41214979132587e-05</v>
+        <v>-8.41214979185878e-05</v>
       </c>
       <c r="D26">
-        <v>0.00021097865995312</v>
+        <v>0.000210978659951344</v>
       </c>
       <c r="E26">
-        <v>9.052987381164e-05</v>
+        <v>9.05298738054228e-05</v>
       </c>
       <c r="F26">
-        <v>0.00034346654950701</v>
+        <v>0.000343466549508342</v>
       </c>
       <c r="G26">
-        <v>-5.4395338718205e-05</v>
+        <v>-5.43953387168727e-05</v>
       </c>
       <c r="H26">
-        <v>0.000178193024350126</v>
+        <v>0.000178193024350237</v>
       </c>
       <c r="I26">
-        <v>-1.0699629325206e-05</v>
+        <v>-1.06996293243178e-05</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1166,16 +1166,16 @@
         <v>-25</v>
       </c>
       <c r="B27">
-        <v>-0.000313010818357107</v>
+        <v>-0.000313010818356219</v>
       </c>
       <c r="C27">
-        <v>0.000372389186132693</v>
+        <v>0.000372389186136246</v>
       </c>
       <c r="D27">
         <v>0.000398119235674343</v>
       </c>
       <c r="E27">
-        <v>-5.45635638991016e-05</v>
+        <v>-5.45635638955488e-05</v>
       </c>
       <c r="F27">
         <v>0.000182595036413602</v>
@@ -1184,7 +1184,7 @@
         <v>0.000493165039056276</v>
       </c>
       <c r="H27">
-        <v>-0.000321522234684846</v>
+        <v>-0.000321522234684679</v>
       </c>
       <c r="I27">
         <v>-0.000174101523229719</v>
@@ -1195,28 +1195,28 @@
         <v>-24</v>
       </c>
       <c r="B28">
-        <v>0.000346266605752987</v>
+        <v>0.000346266605751211</v>
       </c>
       <c r="C28">
-        <v>-0.000199897246000447</v>
+        <v>-0.000199897246002223</v>
       </c>
       <c r="D28">
-        <v>-0.00041274013037107</v>
+        <v>-0.000412740130372846</v>
       </c>
       <c r="E28">
         <v>0.000483665000087896</v>
       </c>
       <c r="F28">
-        <v>-0.00036611735913139</v>
+        <v>-0.000366117359130502</v>
       </c>
       <c r="G28">
-        <v>0.000120412029533501</v>
+        <v>0.000120412029534389</v>
       </c>
       <c r="H28">
-        <v>-0.000118535517933949</v>
+        <v>-0.000118535517933838</v>
       </c>
       <c r="I28">
-        <v>0.000316304791062372</v>
+        <v>0.00031630479106326</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1224,7 +1224,7 @@
         <v>-23</v>
       </c>
       <c r="B29">
-        <v>-0.000233161903332224</v>
+        <v>-0.000233161903330448</v>
       </c>
       <c r="C29">
         <v>1.26362334214036e-05</v>
@@ -1236,16 +1236,16 @@
         <v>0.000255210913256754</v>
       </c>
       <c r="F29">
-        <v>-0.000386405688773461</v>
+        <v>-0.000386405688772573</v>
       </c>
       <c r="G29">
-        <v>-0.000222717750681944</v>
+        <v>-0.000222717750680168</v>
       </c>
       <c r="H29">
-        <v>0.000180052064237768</v>
+        <v>0.00018005206423799</v>
       </c>
       <c r="I29">
-        <v>0.000325967270705441</v>
+        <v>0.000325967270706773</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1253,28 +1253,28 @@
         <v>-22</v>
       </c>
       <c r="B30">
-        <v>-0.000284094339129126</v>
+        <v>-0.000284094339124685</v>
       </c>
       <c r="C30">
-        <v>0.000481077788087703</v>
+        <v>0.000481077788093032</v>
       </c>
       <c r="D30">
-        <v>0.000307166857770547</v>
+        <v>0.000307166857774099</v>
       </c>
       <c r="E30">
-        <v>0.000166560305204122</v>
+        <v>0.000166560305207675</v>
       </c>
       <c r="F30">
-        <v>9.33506030813547e-05</v>
+        <v>9.33506030840192e-05</v>
       </c>
       <c r="G30">
-        <v>-0.000497259836886865</v>
+        <v>-0.000497259836884201</v>
       </c>
       <c r="H30">
-        <v>-0.000109298047875628</v>
+        <v>-0.000109298047875184</v>
       </c>
       <c r="I30">
-        <v>-0.000184187748744513</v>
+        <v>-0.000184187748741849</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1282,28 +1282,28 @@
         <v>-21</v>
       </c>
       <c r="B31">
-        <v>-0.000375982793365814</v>
+        <v>-0.000375982793359597</v>
       </c>
       <c r="C31">
-        <v>0.000301033038413223</v>
+        <v>0.000301033038418552</v>
       </c>
       <c r="D31">
-        <v>-0.000435723496853058</v>
+        <v>-0.000435723496849505</v>
       </c>
       <c r="E31">
-        <v>0.000253956147412637</v>
+        <v>0.00025395614741619</v>
       </c>
       <c r="F31">
-        <v>0.000243054487387706</v>
+        <v>0.000243054487388594</v>
       </c>
       <c r="G31">
-        <v>0.000453379297432388</v>
+        <v>0.000453379297433276</v>
       </c>
       <c r="H31">
-        <v>0.000177575742658753</v>
+        <v>0.000177575742659086</v>
       </c>
       <c r="I31">
-        <v>-0.000114388983089242</v>
+        <v>-0.000114388983088354</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1311,28 +1311,28 @@
         <v>-20</v>
       </c>
       <c r="B32">
-        <v>-0.000449013845308599</v>
+        <v>-0.000449013845307711</v>
       </c>
       <c r="C32">
-        <v>0.000167910304632812</v>
+        <v>0.000167910304631036</v>
       </c>
       <c r="D32">
         <v>-0.000283285258411148</v>
       </c>
       <c r="E32">
-        <v>0.000451896980877997</v>
+        <v>0.000451896980875333</v>
       </c>
       <c r="F32">
-        <v>0.00040268647718289</v>
+        <v>0.000402686477184222</v>
       </c>
       <c r="G32">
-        <v>-7.45596433437967e-05</v>
+        <v>-7.45596433424645e-05</v>
       </c>
       <c r="H32">
-        <v>-3.18130821432838e-05</v>
+        <v>-3.18130821430618e-05</v>
       </c>
       <c r="I32">
-        <v>-0.000184265010749751</v>
+        <v>-0.000184265010748419</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1340,28 +1340,28 @@
         <v>-19</v>
       </c>
       <c r="B33">
-        <v>0.00021035730533292</v>
+        <v>0.000210357305334696</v>
       </c>
       <c r="C33">
-        <v>0.000365059971384696</v>
+        <v>0.000365059971386472</v>
       </c>
       <c r="D33">
         <v>0.000283984131772108</v>
       </c>
       <c r="E33">
-        <v>0.000382514391017885</v>
+        <v>0.000382514391019662</v>
       </c>
       <c r="F33">
-        <v>0.000115891994483253</v>
+        <v>0.00011589199448192</v>
       </c>
       <c r="G33">
-        <v>0.000362640537162395</v>
+        <v>0.000362640537161063</v>
       </c>
       <c r="H33">
         <v>-0.000128587873848507</v>
       </c>
       <c r="I33">
-        <v>9.84546175408774e-05</v>
+        <v>9.84546175395451e-05</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1369,28 +1369,28 @@
         <v>-18</v>
       </c>
       <c r="B34">
-        <v>-6.12660950363164e-05</v>
+        <v>-6.12660950327637e-05</v>
       </c>
       <c r="C34">
-        <v>-0.000229892210567684</v>
+        <v>-0.000229892210565907</v>
       </c>
       <c r="D34">
-        <v>-0.000165751029624239</v>
+        <v>-0.000165751029625127</v>
       </c>
       <c r="E34">
-        <v>0.000199144118578687</v>
+        <v>0.00019914411858224</v>
       </c>
       <c r="F34">
-        <v>0.000154082273274181</v>
+        <v>0.000154082273275513</v>
       </c>
       <c r="G34">
-        <v>0.000340811518701134</v>
+        <v>0.000340811518702466</v>
       </c>
       <c r="H34">
-        <v>0.000110859448742895</v>
+        <v>0.000110859448743117</v>
       </c>
       <c r="I34">
-        <v>0.000446622665807972</v>
+        <v>0.000446622665809304</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1398,13 +1398,13 @@
         <v>-17</v>
       </c>
       <c r="B35">
-        <v>-0.000296325722773716</v>
+        <v>-0.000296325722770163</v>
       </c>
       <c r="C35">
-        <v>-0.000114735086047091</v>
+        <v>-0.000114735086043538</v>
       </c>
       <c r="D35">
-        <v>0.000329625964072378</v>
+        <v>0.000329625964078595</v>
       </c>
       <c r="E35">
         <v>-0.000476990635444707</v>
@@ -1416,10 +1416,10 @@
         <v>-0.000479556299402439</v>
       </c>
       <c r="H35">
-        <v>0.000486812100100931</v>
+        <v>0.000486812100101042</v>
       </c>
       <c r="I35">
-        <v>-0.00023458743401461</v>
+        <v>-0.000234587434015054</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1427,28 +1427,28 @@
         <v>-16</v>
       </c>
       <c r="B36">
-        <v>0.000187377575054271</v>
+        <v>0.000187377575056047</v>
       </c>
       <c r="C36">
-        <v>-0.000102644049968958</v>
+        <v>-0.000102644049965406</v>
       </c>
       <c r="D36">
-        <v>0.000397756400968063</v>
+        <v>0.000397756400970728</v>
       </c>
       <c r="E36">
-        <v>-0.000486465277873549</v>
+        <v>-0.000486465277871773</v>
       </c>
       <c r="F36">
-        <v>-5.09217473432244e-06</v>
+        <v>-5.09217473165791e-06</v>
       </c>
       <c r="G36">
-        <v>-0.000439164219453225</v>
+        <v>-0.000439164219450561</v>
       </c>
       <c r="H36">
-        <v>0.000378526984022742</v>
+        <v>0.000378526984022964</v>
       </c>
       <c r="I36">
-        <v>7.34601985215022e-05</v>
+        <v>7.34601985241667e-05</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1456,28 +1456,28 @@
         <v>-15</v>
       </c>
       <c r="B37">
-        <v>-0.000154743451648898</v>
+        <v>-0.000154743451656003</v>
       </c>
       <c r="C37">
-        <v>-0.000227452837496145</v>
+        <v>-0.00022745283750325</v>
       </c>
       <c r="D37">
-        <v>0.000433221663561412</v>
+        <v>0.000433221663557859</v>
       </c>
       <c r="E37">
-        <v>0.000108241488355532</v>
+        <v>0.000108241488350203</v>
       </c>
       <c r="F37">
-        <v>-0.000219818255211557</v>
+        <v>-0.000219818255210669</v>
       </c>
       <c r="G37">
-        <v>-4.60672522528682e-06</v>
+        <v>-4.60672522439864e-06</v>
       </c>
       <c r="H37">
-        <v>-0.000204022961511896</v>
+        <v>-0.000204022961511674</v>
       </c>
       <c r="I37">
-        <v>0.000365156266964206</v>
+        <v>0.000365156266965094</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1485,7 +1485,7 @@
         <v>-14</v>
       </c>
       <c r="B38">
-        <v>2.0262760191514e-05</v>
+        <v>2.02627601897376e-05</v>
       </c>
       <c r="C38">
         <v>0.000389042291770281</v>
@@ -1497,7 +1497,7 @@
         <v>0.000455408762812581</v>
       </c>
       <c r="F38">
-        <v>0.000417417537406983</v>
+        <v>0.000417417537407871</v>
       </c>
       <c r="G38">
         <v>7.66249437020861e-05</v>
@@ -1506,7 +1506,7 @@
         <v>0.000486238341072864</v>
       </c>
       <c r="I38">
-        <v>0.000417111709846374</v>
+        <v>0.000417111709847262</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1520,22 +1520,22 @@
         <v>-0.000291858440562009</v>
       </c>
       <c r="D39">
-        <v>0.000377930152636985</v>
+        <v>0.00037793015263432</v>
       </c>
       <c r="E39">
         <v>-0.00045954863938924</v>
       </c>
       <c r="F39">
-        <v>5.16861680619485e-05</v>
+        <v>5.1686168064613e-05</v>
       </c>
       <c r="G39">
-        <v>-0.000389874047715288</v>
+        <v>-0.000389874047712624</v>
       </c>
       <c r="H39">
-        <v>9.42894623326973e-05</v>
+        <v>9.42894623330304e-05</v>
       </c>
       <c r="I39">
-        <v>-0.000441832986578738</v>
+        <v>-0.000441832986576074</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1546,25 +1546,25 @@
         <v>-0.00032522717746275</v>
       </c>
       <c r="C40">
-        <v>-2.00746828067366e-05</v>
+        <v>-2.00746828102893e-05</v>
       </c>
       <c r="D40">
-        <v>0.000434591569362652</v>
+        <v>0.000434591569357323</v>
       </c>
       <c r="E40">
-        <v>-2.43640858705874e-05</v>
+        <v>-2.43640858723637e-05</v>
       </c>
       <c r="F40">
-        <v>8.05001567485419e-05</v>
+        <v>8.05001567512065e-05</v>
       </c>
       <c r="G40">
-        <v>-0.00019355678606825</v>
+        <v>-0.000193556786064697</v>
       </c>
       <c r="H40">
-        <v>0.000370683457239229</v>
+        <v>0.000370683457239451</v>
       </c>
       <c r="I40">
-        <v>0.000440032749016162</v>
+        <v>0.000440032749019714</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1572,28 +1572,28 @@
         <v>-11</v>
       </c>
       <c r="B41">
-        <v>-0.000185133893500833</v>
+        <v>-0.000185133893502609</v>
       </c>
       <c r="C41">
-        <v>-2.55033320684106e-05</v>
+        <v>-2.5503332070187e-05</v>
       </c>
       <c r="D41">
         <v>-0.000402075742650609</v>
       </c>
       <c r="E41">
-        <v>-0.000114731997625128</v>
+        <v>-0.000114731997626905</v>
       </c>
       <c r="F41">
-        <v>6.05090917158435e-05</v>
+        <v>6.05090917176199e-05</v>
       </c>
       <c r="G41">
-        <v>0.000184545288738569</v>
+        <v>0.000184545288740345</v>
       </c>
       <c r="H41">
-        <v>0.000409638618667607</v>
+        <v>0.000409638618667385</v>
       </c>
       <c r="I41">
-        <v>-0.000141539583636607</v>
+        <v>-0.000141539583634831</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1619,7 +1619,7 @@
         <v>-0.000442380115829977</v>
       </c>
       <c r="H42">
-        <v>-0.000108190762102778</v>
+        <v>-0.000108190762102334</v>
       </c>
       <c r="I42">
         <v>-0.000323905721927531</v>
@@ -1633,22 +1633,22 @@
         <v>-0.000493887143958815</v>
       </c>
       <c r="C43">
-        <v>0.000250503353599996</v>
+        <v>0.000250503353598219</v>
       </c>
       <c r="D43">
-        <v>-0.000405287616516148</v>
+        <v>-0.000405287616517924</v>
       </c>
       <c r="E43">
-        <v>0.000292873844459862</v>
+        <v>0.000292873844458086</v>
       </c>
       <c r="F43">
-        <v>-0.000423223682505025</v>
+        <v>-0.000423223682504137</v>
       </c>
       <c r="G43">
         <v>0.00012015433869994</v>
       </c>
       <c r="H43">
-        <v>0.000298516982607522</v>
+        <v>0.000298516982607744</v>
       </c>
       <c r="I43">
         <v>-0.000115855650141938</v>
@@ -1659,28 +1659,28 @@
         <v>-8</v>
       </c>
       <c r="B44">
-        <v>0.000310297986038321</v>
+        <v>0.000310297986036545</v>
       </c>
       <c r="C44">
-        <v>-0.000237501876341639</v>
+        <v>-0.000237501876345192</v>
       </c>
       <c r="D44">
-        <v>-0.000305190994977167</v>
+        <v>-0.000305190994978943</v>
       </c>
       <c r="E44">
-        <v>-0.00038554636517496</v>
+        <v>-0.000385546365178513</v>
       </c>
       <c r="F44">
-        <v>0.000320171998289709</v>
+        <v>0.000320171998292373</v>
       </c>
       <c r="G44">
-        <v>-0.000363343795707571</v>
+        <v>-0.000363343795704907</v>
       </c>
       <c r="H44">
-        <v>6.1163189724045e-05</v>
+        <v>6.1163189724156e-05</v>
       </c>
       <c r="I44">
-        <v>-0.000187458438853483</v>
+        <v>-0.000187458438850818</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>-7</v>
       </c>
       <c r="B45">
-        <v>-0.000444208270963031</v>
+        <v>-0.000444208270966584</v>
       </c>
       <c r="C45">
-        <v>-0.000226766993037586</v>
+        <v>-0.000226766993039362</v>
       </c>
       <c r="D45">
         <v>-0.000275636101020993</v>
       </c>
       <c r="E45">
-        <v>-0.000463079018311774</v>
+        <v>-0.000463079018315327</v>
       </c>
       <c r="F45">
-        <v>-3.56308557574181e-05</v>
+        <v>-3.56308557556417e-05</v>
       </c>
       <c r="G45">
-        <v>-0.000288705426332747</v>
+        <v>-0.000288705426330971</v>
       </c>
       <c r="H45">
         <v>-0.000386926105499397</v>
       </c>
       <c r="I45">
-        <v>0.00046450737259196</v>
+        <v>0.000464507372593737</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>-6</v>
       </c>
       <c r="B46">
-        <v>0.000428946677592634</v>
+        <v>0.000428946677594411</v>
       </c>
       <c r="C46">
-        <v>-0.000372426594362096</v>
+        <v>-0.000372426594358544</v>
       </c>
       <c r="D46">
-        <v>-0.000169893571039026</v>
+        <v>-0.00016989357103725</v>
       </c>
       <c r="E46">
-        <v>4.66331371740125e-06</v>
+        <v>4.66331372273032e-06</v>
       </c>
       <c r="F46">
-        <v>-0.000103420642884267</v>
+        <v>-0.000103420642879826</v>
       </c>
       <c r="G46">
-        <v>9.94810056873519e-05</v>
+        <v>9.94810056909046e-05</v>
       </c>
       <c r="H46">
-        <v>0.000321852664739164</v>
+        <v>0.000321852664739386</v>
       </c>
       <c r="I46">
-        <v>-7.86554832608033e-05</v>
+        <v>-7.86554832572506e-05</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1746,28 +1746,28 @@
         <v>-5</v>
       </c>
       <c r="B47">
-        <v>0.000331473925831105</v>
+        <v>0.000331473925836434</v>
       </c>
       <c r="C47">
-        <v>-9.65133017452047e-05</v>
+        <v>-9.6513301741652e-05</v>
       </c>
       <c r="D47">
-        <v>-3.36122824311502e-05</v>
+        <v>-3.36122824329266e-05</v>
       </c>
       <c r="E47">
-        <v>0.000204362574711681</v>
+        <v>0.000204362574718786</v>
       </c>
       <c r="F47">
-        <v>-3.34024585253445e-05</v>
+        <v>-3.34024585244563e-05</v>
       </c>
       <c r="G47">
-        <v>1.14834319013823e-05</v>
+        <v>1.14834319022705e-05</v>
       </c>
       <c r="H47">
-        <v>0.000296949941553937</v>
+        <v>0.000296949941553826</v>
       </c>
       <c r="I47">
-        <v>-0.000254609413548934</v>
+        <v>-0.000254609413548046</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1778,25 +1778,25 @@
         <v>-0.000255464621561785</v>
       </c>
       <c r="C48">
-        <v>0.000178971828226793</v>
+        <v>0.000178971828228569</v>
       </c>
       <c r="D48">
-        <v>0.000402096187810841</v>
+        <v>0.000402096187812617</v>
       </c>
       <c r="E48">
         <v>0.000299392575765722</v>
       </c>
       <c r="F48">
-        <v>-0.000156869811674731</v>
+        <v>-0.000156869811672067</v>
       </c>
       <c r="G48">
-        <v>0.000357109425730862</v>
+        <v>0.000357109425733526</v>
       </c>
       <c r="H48">
-        <v>8.61657897901491e-05</v>
+        <v>8.61657897905932e-05</v>
       </c>
       <c r="I48">
-        <v>0.000308069154571378</v>
+        <v>0.000308069154574042</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1804,7 +1804,7 @@
         <v>-3</v>
       </c>
       <c r="B49">
-        <v>-9.53649823340896e-05</v>
+        <v>-9.53649823429714e-05</v>
       </c>
       <c r="C49">
         <v>-0.000331522339815038</v>
@@ -1816,16 +1816,16 @@
         <v>1.02383068494305e-05</v>
       </c>
       <c r="F49">
-        <v>0.000186251321044217</v>
+        <v>0.000186251321046882</v>
       </c>
       <c r="G49">
-        <v>-0.000110577245038712</v>
+        <v>-0.000110577245035159</v>
       </c>
       <c r="H49">
         <v>0.000292462754136413</v>
       </c>
       <c r="I49">
-        <v>-1.46037299471047e-05</v>
+        <v>-1.4603729943552e-05</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1833,7 +1833,7 @@
         <v>-2</v>
       </c>
       <c r="B50">
-        <v>0.000367836359865592</v>
+        <v>0.000367836359863816</v>
       </c>
       <c r="C50">
         <v>-0.000246126895014243</v>
@@ -1842,19 +1842,19 @@
         <v>-0.000139426982684654</v>
       </c>
       <c r="E50">
-        <v>0.000294450393111489</v>
+        <v>0.000294450393109713</v>
       </c>
       <c r="F50">
-        <v>-0.000487149803277021</v>
+        <v>-0.000487149803276132</v>
       </c>
       <c r="G50">
-        <v>0.000222338624676688</v>
+        <v>0.000222338624677576</v>
       </c>
       <c r="H50">
         <v>0.000157496319125983</v>
       </c>
       <c r="I50">
-        <v>0.000190433538674206</v>
+        <v>0.000190433538675094</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1862,28 +1862,28 @@
         <v>-1</v>
       </c>
       <c r="B51">
-        <v>0.000471784391400831</v>
+        <v>0.000471784391404384</v>
       </c>
       <c r="C51">
-        <v>0.000455776159762777</v>
+        <v>0.000455776159764554</v>
       </c>
       <c r="D51">
         <v>-9.41037184531979e-05</v>
       </c>
       <c r="E51">
-        <v>0.000373754396326476</v>
+        <v>0.000373754396328252</v>
       </c>
       <c r="F51">
-        <v>0.000237412944894544</v>
+        <v>0.000237412944897208</v>
       </c>
       <c r="G51">
-        <v>-0.000281685052403446</v>
+        <v>-0.000281685052400782</v>
       </c>
       <c r="H51">
-        <v>0.00017299258446335</v>
+        <v>0.000172992584463461</v>
       </c>
       <c r="I51">
-        <v>0.000243809564242525</v>
+        <v>0.00024380956424519</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>-0.000223479511237912</v>
+        <v>-0.000223479511239688</v>
       </c>
       <c r="C52">
-        <v>-9.25003235501265e-05</v>
+        <v>-9.25003235536792e-05</v>
       </c>
       <c r="D52">
         <v>0.000452894398449644</v>
       </c>
       <c r="E52">
-        <v>0.000287065445279566</v>
+        <v>0.000287065445274237</v>
       </c>
       <c r="F52">
-        <v>0.000293124884700902</v>
+        <v>0.000293124884703566</v>
       </c>
       <c r="G52">
-        <v>0.000264217515119292</v>
+        <v>0.000264217515121956</v>
       </c>
       <c r="H52">
-        <v>-0.000203750948794545</v>
+        <v>-0.000203750948794212</v>
       </c>
       <c r="I52">
-        <v>0.000112112864286473</v>
+        <v>0.000112112864289138</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1920,28 +1920,28 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>0.000486823830637917</v>
+        <v>0.000486823830634364</v>
       </c>
       <c r="C53">
-        <v>-9.86311341044654e-05</v>
+        <v>-9.86311341080182e-05</v>
       </c>
       <c r="D53">
         <v>-2.39304151996578e-05</v>
       </c>
       <c r="E53">
-        <v>3.54906728539106e-05</v>
+        <v>3.54906728485815e-05</v>
       </c>
       <c r="F53">
-        <v>-0.000100150788919784</v>
+        <v>-0.000100150788914455</v>
       </c>
       <c r="G53">
-        <v>-2.7930495063444e-05</v>
+        <v>-2.7930495058115e-05</v>
       </c>
       <c r="H53">
-        <v>0.000349792697252993</v>
+        <v>0.000349792697253437</v>
       </c>
       <c r="I53">
-        <v>6.41163385530774e-05</v>
+        <v>6.41163385584065e-05</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1952,25 +1952,25 @@
         <v>5.9570214947513e-05</v>
       </c>
       <c r="C54">
-        <v>-0.000427672237906407</v>
+        <v>-0.00042767223790463</v>
       </c>
       <c r="D54">
         <v>-0.00035138872699747</v>
       </c>
       <c r="E54">
-        <v>0.000264586324608018</v>
+        <v>0.000264586324609795</v>
       </c>
       <c r="F54">
-        <v>0.000215442976124969</v>
+        <v>0.000215442976125857</v>
       </c>
       <c r="G54">
-        <v>-0.000146080206197219</v>
+        <v>-0.000146080206194554</v>
       </c>
       <c r="H54">
-        <v>0.0001540971516798</v>
+        <v>0.000154097151680022</v>
       </c>
       <c r="I54">
-        <v>0.000304001938271625</v>
+        <v>0.000304001938273402</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1978,28 +1978,28 @@
         <v>3</v>
       </c>
       <c r="B55">
-        <v>-1.66784772694939e-05</v>
+        <v>-1.66784772623885e-05</v>
       </c>
       <c r="C55">
-        <v>0.000265998535850187</v>
+        <v>0.00026599853585374</v>
       </c>
       <c r="D55">
         <v>9.08170267326369e-05</v>
       </c>
       <c r="E55">
-        <v>0.000333897709051456</v>
+        <v>0.000333897709056785</v>
       </c>
       <c r="F55">
-        <v>-6.98289641718475e-05</v>
+        <v>-6.98289641674066e-05</v>
       </c>
       <c r="G55">
-        <v>-0.000475342185716876</v>
+        <v>-0.000475342185712435</v>
       </c>
       <c r="H55">
-        <v>-0.000129148596526685</v>
+        <v>-0.000129148596526463</v>
       </c>
       <c r="I55">
-        <v>-0.00036028154606349</v>
+        <v>-0.000360281546059049</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2019,16 +2019,16 @@
         <v>-0.000430856688696579</v>
       </c>
       <c r="F56">
-        <v>0.000262014541602795</v>
+        <v>0.000262014541603683</v>
       </c>
       <c r="G56">
-        <v>-1.74696886450221e-05</v>
+        <v>-1.74696886441339e-05</v>
       </c>
       <c r="H56">
-        <v>-3.95807611519583e-05</v>
+        <v>-3.95807611518473e-05</v>
       </c>
       <c r="I56">
-        <v>0.00023590916020666</v>
+        <v>0.000235909160207548</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2036,7 +2036,7 @@
         <v>5</v>
       </c>
       <c r="B57">
-        <v>-0.000394539319939824</v>
+        <v>-0.0003945393199416</v>
       </c>
       <c r="C57">
         <v>-0.000218249615780763</v>
@@ -2048,16 +2048,16 @@
         <v>0.000472827882870064</v>
       </c>
       <c r="F57">
-        <v>-0.000467857120581172</v>
+        <v>-0.000467857120576731</v>
       </c>
       <c r="G57">
-        <v>-0.000495221808788138</v>
+        <v>-0.000495221808784585</v>
       </c>
       <c r="H57">
-        <v>0.000127564668928826</v>
+        <v>0.000127564668928937</v>
       </c>
       <c r="I57">
-        <v>0.000487219502514513</v>
+        <v>0.000487219502518954</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2065,7 +2065,7 @@
         <v>6</v>
       </c>
       <c r="B58">
-        <v>0.000193631568665253</v>
+        <v>0.000193631568661701</v>
       </c>
       <c r="C58">
         <v>-8.25535888839823e-05</v>
@@ -2074,19 +2074,19 @@
         <v>-1.19343889934953e-05</v>
       </c>
       <c r="E58">
-        <v>-0.000327903538423158</v>
+        <v>-0.000327903538424934</v>
       </c>
       <c r="F58">
-        <v>-0.000484681052228986</v>
+        <v>-0.000484681052226321</v>
       </c>
       <c r="G58">
-        <v>-0.00032310984269035</v>
+        <v>-0.000323109842687686</v>
       </c>
       <c r="H58">
-        <v>-0.000354485869673571</v>
+        <v>-0.000354485869673349</v>
       </c>
       <c r="I58">
-        <v>3.09490773178211e-05</v>
+        <v>3.09490773204857e-05</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2106,16 +2106,16 @@
         <v>0.00040469841882107</v>
       </c>
       <c r="F59">
-        <v>0.000320818265111988</v>
+        <v>0.000320818265114653</v>
       </c>
       <c r="G59">
-        <v>-0.000448510560564941</v>
+        <v>-0.000448510560562276</v>
       </c>
       <c r="H59">
         <v>0.000477926043856103</v>
       </c>
       <c r="I59">
-        <v>-0.000101258427901207</v>
+        <v>-0.000101258427898543</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2135,16 +2135,16 @@
         <v>0.000396103668666825</v>
       </c>
       <c r="F60">
-        <v>-0.000238691764281818</v>
+        <v>-0.000238691764280929</v>
       </c>
       <c r="G60">
         <v>-8.91031627459071e-05</v>
       </c>
       <c r="H60">
-        <v>0.000150614653807835</v>
+        <v>0.000150614653807946</v>
       </c>
       <c r="I60">
-        <v>-0.000213636149042351</v>
+        <v>-0.000213636149041463</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2152,28 +2152,28 @@
         <v>9</v>
       </c>
       <c r="B61">
-        <v>-0.000397150012702241</v>
+        <v>-0.000397150012700465</v>
       </c>
       <c r="C61">
-        <v>-0.000235637392353993</v>
+        <v>-0.000235637392352217</v>
       </c>
       <c r="D61">
-        <v>5.80096827071941e-05</v>
+        <v>5.80096827089704e-05</v>
       </c>
       <c r="E61">
         <v>8.08496549939974e-05</v>
       </c>
       <c r="F61">
-        <v>-0.000290499135123135</v>
+        <v>-0.000290499135122246</v>
       </c>
       <c r="G61">
-        <v>-0.000409746803600619</v>
+        <v>-0.000409746803599731</v>
       </c>
       <c r="H61">
-        <v>0.000383077386746478</v>
+        <v>0.000383077386746589</v>
       </c>
       <c r="I61">
-        <v>0.000401129248113641</v>
+        <v>0.000401129248114529</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2184,25 +2184,25 @@
         <v>0.000439737860459033</v>
       </c>
       <c r="C62">
-        <v>0.000365675294322187</v>
+        <v>0.00036567529432574</v>
       </c>
       <c r="D62">
         <v>-0.00049116681258532</v>
       </c>
       <c r="E62">
-        <v>0.000275084011583715</v>
+        <v>0.000275084011589044</v>
       </c>
       <c r="F62">
-        <v>0.000406707693184849</v>
+        <v>0.00040670769318929</v>
       </c>
       <c r="G62">
-        <v>-0.000190814263590688</v>
+        <v>-0.000190814263587136</v>
       </c>
       <c r="H62">
-        <v>-0.00041301977000674</v>
+        <v>-0.000413019770006851</v>
       </c>
       <c r="I62">
-        <v>-0.000167751500064206</v>
+        <v>-0.000167751500059765</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2210,28 +2210,28 @@
         <v>11</v>
       </c>
       <c r="B63">
-        <v>0.000122641317728878</v>
+        <v>0.000122641317727101</v>
       </c>
       <c r="C63">
-        <v>-0.000398724625524594</v>
+        <v>-0.00039872462552637</v>
       </c>
       <c r="D63">
-        <v>0.000218512415854022</v>
+        <v>0.000218512415852246</v>
       </c>
       <c r="E63">
-        <v>-0.000412513447937357</v>
+        <v>-0.000412513447939133</v>
       </c>
       <c r="F63">
-        <v>-0.0003413913849446</v>
+        <v>-0.000341391384941936</v>
       </c>
       <c r="G63">
-        <v>0.000460988804777074</v>
+        <v>0.000460988804779738</v>
       </c>
       <c r="H63">
-        <v>0.000428334368118954</v>
+        <v>0.000428334368118843</v>
       </c>
       <c r="I63">
-        <v>-0.000115394378007672</v>
+        <v>-0.000115394378005007</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2242,25 +2242,25 @@
         <v>0.000243948662262738</v>
       </c>
       <c r="C64">
-        <v>0.000102129980543708</v>
+        <v>0.000102129980545484</v>
       </c>
       <c r="D64">
-        <v>-0.000442948200017668</v>
+        <v>-0.000442948200019444</v>
       </c>
       <c r="E64">
-        <v>-8.63438449805187e-06</v>
+        <v>-8.63438449449916e-06</v>
       </c>
       <c r="F64">
         <v>0.000192298883839648</v>
       </c>
       <c r="G64">
-        <v>0.000318506021907972</v>
+        <v>0.00031850602190886</v>
       </c>
       <c r="H64">
-        <v>-0.00035520397012001</v>
+        <v>-0.000355203970119677</v>
       </c>
       <c r="I64">
-        <v>0.000323498123032451</v>
+        <v>0.000323498123033339</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2268,28 +2268,28 @@
         <v>13</v>
       </c>
       <c r="B65">
-        <v>-0.000400352010128557</v>
+        <v>-0.000400352010135663</v>
       </c>
       <c r="C65">
-        <v>-0.000110488574566858</v>
+        <v>-0.000110488574572187</v>
       </c>
       <c r="D65">
-        <v>-0.000369085397151636</v>
+        <v>-0.000369085397156965</v>
       </c>
       <c r="E65">
-        <v>-1.76202175268259e-05</v>
+        <v>-1.76202175303786e-05</v>
       </c>
       <c r="F65">
-        <v>-0.000208424757209613</v>
+        <v>-0.000208424757207837</v>
       </c>
       <c r="G65">
-        <v>0.000132633430220075</v>
+        <v>0.000132633430220963</v>
       </c>
       <c r="H65">
-        <v>0.000182914923238409</v>
+        <v>0.000182914923238631</v>
       </c>
       <c r="I65">
-        <v>-4.33128546806216e-06</v>
+        <v>-4.33128546717398e-06</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2306,7 +2306,7 @@
         <v>0.000180837484057506</v>
       </c>
       <c r="E66">
-        <v>-0.000428590169029519</v>
+        <v>-0.000428590169031295</v>
       </c>
       <c r="F66">
         <v>6.0063682614242e-05</v>
@@ -2335,19 +2335,19 @@
         <v>5.29383382801285e-05</v>
       </c>
       <c r="E67">
-        <v>7.25738130302744e-05</v>
+        <v>7.25738130284981e-05</v>
       </c>
       <c r="F67">
-        <v>-0.00045260595069152</v>
+        <v>-0.000452605950689744</v>
       </c>
       <c r="G67">
-        <v>0.000343127928657871</v>
+        <v>0.000343127928659648</v>
       </c>
       <c r="H67">
-        <v>0.00031023805463104</v>
+        <v>0.000310238054630929</v>
       </c>
       <c r="I67">
-        <v>-0.000366433813935529</v>
+        <v>-0.000366433813933753</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2358,25 +2358,25 @@
         <v>-0.000412281651446023</v>
       </c>
       <c r="C68">
-        <v>0.00044092002219287</v>
+        <v>0.000440920022191094</v>
       </c>
       <c r="D68">
         <v>0.000375345042183284</v>
       </c>
       <c r="E68">
-        <v>0.000386897511901907</v>
+        <v>0.000386897511898354</v>
       </c>
       <c r="F68">
-        <v>-0.000478855231179409</v>
+        <v>-0.000478855231177633</v>
       </c>
       <c r="G68">
-        <v>-0.000462567861163166</v>
+        <v>-0.000462567861162277</v>
       </c>
       <c r="H68">
-        <v>0.000305862028257331</v>
+        <v>0.000305862028257553</v>
       </c>
       <c r="I68">
-        <v>8.38219798016127e-06</v>
+        <v>8.38219798104944e-06</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2384,28 +2384,28 @@
         <v>17</v>
       </c>
       <c r="B69">
-        <v>-0.000445852360044796</v>
+        <v>-0.000445852360051902</v>
       </c>
       <c r="C69">
-        <v>0.000401582737257655</v>
+        <v>0.00040158273725055</v>
       </c>
       <c r="D69">
-        <v>-0.000403446922382145</v>
+        <v>-0.00040344692238925</v>
       </c>
       <c r="E69">
-        <v>0.000377178936136424</v>
+        <v>0.000377178936134648</v>
       </c>
       <c r="F69">
-        <v>-0.000424182207058976</v>
+        <v>-0.000424182207056312</v>
       </c>
       <c r="G69">
-        <v>-0.000130731308546572</v>
+        <v>-0.000130731308544796</v>
       </c>
       <c r="H69">
-        <v>1.33432864538596e-05</v>
+        <v>1.33432864539706e-05</v>
       </c>
       <c r="I69">
-        <v>-5.90208150406113e-05</v>
+        <v>-5.90208150388349e-05</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2413,28 +2413,28 @@
         <v>18</v>
       </c>
       <c r="B70">
-        <v>-7.64915390263354e-05</v>
+        <v>-7.64915390245591e-05</v>
       </c>
       <c r="C70">
-        <v>-0.000185420483676424</v>
+        <v>-0.000185420483681753</v>
       </c>
       <c r="D70">
         <v>-0.000467434530534661</v>
       </c>
       <c r="E70">
-        <v>-2.94222246655096e-06</v>
+        <v>-2.94222247276821e-06</v>
       </c>
       <c r="F70">
-        <v>-0.000393162982722295</v>
+        <v>-0.000393162982721407</v>
       </c>
       <c r="G70">
-        <v>0.000204709916599377</v>
+        <v>0.000204709916600265</v>
       </c>
       <c r="H70">
-        <v>-0.000440719153251834</v>
+        <v>-0.000440719153251612</v>
       </c>
       <c r="I70">
-        <v>-0.00040512575174656</v>
+        <v>-0.000405125751745672</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2442,7 +2442,7 @@
         <v>19</v>
       </c>
       <c r="B71">
-        <v>-0.000495154258661756</v>
+        <v>-0.00049515425865998</v>
       </c>
       <c r="C71">
         <v>1.50011556812046e-05</v>
@@ -2454,16 +2454,16 @@
         <v>-5.72039431823157e-07</v>
       </c>
       <c r="F71">
-        <v>0.000480811339215848</v>
+        <v>0.000480811339216736</v>
       </c>
       <c r="G71">
-        <v>0.000387145932544186</v>
+        <v>0.000387145932545074</v>
       </c>
       <c r="H71">
         <v>-0.000291166135407139</v>
       </c>
       <c r="I71">
-        <v>4.59932836243127e-05</v>
+        <v>4.59932836252008e-05</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2483,16 +2483,16 @@
         <v>0.000209405057909784</v>
       </c>
       <c r="F72">
-        <v>-0.000194172648280144</v>
+        <v>-0.000194172648278368</v>
       </c>
       <c r="G72">
-        <v>5.20749673897924e-05</v>
+        <v>5.20749673915688e-05</v>
       </c>
       <c r="H72">
-        <v>-0.000229661515577684</v>
+        <v>-0.000229661515577351</v>
       </c>
       <c r="I72">
-        <v>8.09253322540116e-05</v>
+        <v>8.09253322557879e-05</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2500,28 +2500,28 @@
         <v>21</v>
       </c>
       <c r="B73">
-        <v>-0.000104758914226011</v>
+        <v>-0.000104758914222458</v>
       </c>
       <c r="C73">
-        <v>0.000483284780782967</v>
+        <v>0.000483284780786519</v>
       </c>
       <c r="D73">
         <v>0.000265852606054828</v>
       </c>
       <c r="E73">
-        <v>0.000449316917072728</v>
+        <v>0.000449316917077169</v>
       </c>
       <c r="F73">
-        <v>-0.000113577755946004</v>
+        <v>-0.000113577755942451</v>
       </c>
       <c r="G73">
-        <v>0.000487833476984889</v>
+        <v>0.000487833476988442</v>
       </c>
       <c r="H73">
-        <v>0.000464879187308309</v>
+        <v>0.00046487918730842</v>
       </c>
       <c r="I73">
-        <v>5.41141154029035e-05</v>
+        <v>5.41141154064562e-05</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2529,25 +2529,25 @@
         <v>22</v>
       </c>
       <c r="B74">
-        <v>0.000408745587645143</v>
+        <v>0.000408745587648696</v>
       </c>
       <c r="C74">
-        <v>0.000375844731751229</v>
+        <v>0.000375844731753006</v>
       </c>
       <c r="D74">
         <v>-0.000231840206406986</v>
       </c>
       <c r="E74">
-        <v>0.000240748370885946</v>
+        <v>0.000240748370889499</v>
       </c>
       <c r="F74">
         <v>-0.000413626602255857</v>
       </c>
       <c r="G74">
-        <v>-0.00045536531531587</v>
+        <v>-0.000455365315315426</v>
       </c>
       <c r="H74">
-        <v>-0.000211785999625014</v>
+        <v>-0.000211785999624459</v>
       </c>
       <c r="I74">
         <v>-0.000196039379145141</v>
@@ -2558,28 +2558,28 @@
         <v>23</v>
       </c>
       <c r="B75">
-        <v>0.00029254086630992</v>
+        <v>0.000292540866316138</v>
       </c>
       <c r="C75">
-        <v>0.00013496284623038</v>
+        <v>0.000134962846235709</v>
       </c>
       <c r="D75">
         <v>-0.000320205903220128</v>
       </c>
       <c r="E75">
-        <v>0.000401218919771296</v>
+        <v>0.000401218919778401</v>
       </c>
       <c r="F75">
-        <v>0.000281175931573507</v>
+        <v>0.000281175931575284</v>
       </c>
       <c r="G75">
-        <v>-0.000411566285538179</v>
+        <v>-0.00041156628553729</v>
       </c>
       <c r="H75">
-        <v>-0.000116446760801248</v>
+        <v>-0.000116446760800804</v>
       </c>
       <c r="I75">
-        <v>-0.000379197539816634</v>
+        <v>-0.000379197539815301</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2590,25 +2590,25 @@
         <v>-1.26975535010843e-05</v>
       </c>
       <c r="C76">
-        <v>-0.000471243607156779</v>
+        <v>-0.000471243607153227</v>
       </c>
       <c r="D76">
         <v>-0.000298223243060391</v>
       </c>
       <c r="E76">
-        <v>-0.000375583385624267</v>
+        <v>-0.000375583385620715</v>
       </c>
       <c r="F76">
-        <v>-0.000150802361525315</v>
+        <v>-0.000150802361523095</v>
       </c>
       <c r="G76">
-        <v>0.000492477793677004</v>
+        <v>0.000492477793679669</v>
       </c>
       <c r="H76">
         <v>-6.43466506803358e-05</v>
       </c>
       <c r="I76">
-        <v>0.000255969845489812</v>
+        <v>0.000255969845492476</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2616,7 +2616,7 @@
         <v>25</v>
       </c>
       <c r="B77">
-        <v>0.00048627663576184</v>
+        <v>0.000486276635760063</v>
       </c>
       <c r="C77">
         <v>-0.000123696471566959</v>
@@ -2625,7 +2625,7 @@
         <v>0.000144680178627787</v>
       </c>
       <c r="E77">
-        <v>0.000100198361319137</v>
+        <v>0.000100198361317361</v>
       </c>
       <c r="F77">
         <v>-0.000307528379686506</v>
@@ -2634,7 +2634,7 @@
         <v>-0.000342259888212126</v>
       </c>
       <c r="H77">
-        <v>9.03469363531251e-05</v>
+        <v>9.03469363534581e-05</v>
       </c>
       <c r="I77">
         <v>-3.9948255146971e-05</v>
@@ -2645,28 +2645,28 @@
         <v>26</v>
       </c>
       <c r="B78">
-        <v>0.000413799036260265</v>
+        <v>0.000413799036261153</v>
       </c>
       <c r="C78">
-        <v>6.6602523702386e-05</v>
+        <v>6.66025237006096e-05</v>
       </c>
       <c r="D78">
-        <v>0.000191681427426538</v>
+        <v>0.000191681427422985</v>
       </c>
       <c r="E78">
-        <v>0.000202724303508539</v>
+        <v>0.000202724303510315</v>
       </c>
       <c r="F78">
-        <v>-0.000222073047285054</v>
+        <v>-0.000222073047284166</v>
       </c>
       <c r="G78">
-        <v>5.33211088553642e-05</v>
+        <v>5.33211088566965e-05</v>
       </c>
       <c r="H78">
-        <v>0.000399201713647712</v>
+        <v>0.000399201713648045</v>
       </c>
       <c r="I78">
-        <v>-0.000460693628634878</v>
+        <v>-0.000460693628633546</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2674,13 +2674,13 @@
         <v>27</v>
       </c>
       <c r="B79">
-        <v>5.39780539847712e-05</v>
+        <v>5.39780539829948e-05</v>
       </c>
       <c r="C79">
-        <v>-0.000409041514863873</v>
+        <v>-0.000409041514865649</v>
       </c>
       <c r="D79">
-        <v>0.000173700748021588</v>
+        <v>0.000173700748018035</v>
       </c>
       <c r="E79">
         <v>0.00025509939006696</v>
@@ -2692,7 +2692,7 @@
         <v>0.000268801262969465</v>
       </c>
       <c r="H79">
-        <v>-0.000213672644440388</v>
+        <v>-0.000213672644440277</v>
       </c>
       <c r="I79">
         <v>0.000420990626582629</v>
@@ -2712,19 +2712,19 @@
         <v>-0.000170544606113765</v>
       </c>
       <c r="E80">
-        <v>0.000366470488375015</v>
+        <v>0.000366470488375903</v>
       </c>
       <c r="F80">
-        <v>-0.00030672886137717</v>
+        <v>-0.000306728861375838</v>
       </c>
       <c r="G80">
-        <v>-0.000428035397646465</v>
+        <v>-0.000428035397645132</v>
       </c>
       <c r="H80">
-        <v>3.3080022910581e-05</v>
+        <v>3.3080022910803e-05</v>
       </c>
       <c r="I80">
-        <v>-0.000279396375250762</v>
+        <v>-0.00027939637524943</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2732,28 +2732,28 @@
         <v>29</v>
       </c>
       <c r="B81">
-        <v>7.16609669586532e-05</v>
+        <v>7.16609669595414e-05</v>
       </c>
       <c r="C81">
-        <v>-0.000136457831609427</v>
+        <v>-0.000136457831610315</v>
       </c>
       <c r="D81">
-        <v>-0.000467306891943409</v>
+        <v>-0.000467306891945185</v>
       </c>
       <c r="E81">
         <v>0.000331067365213933</v>
       </c>
       <c r="F81">
-        <v>-0.000216298279947402</v>
+        <v>-0.000216298279945626</v>
       </c>
       <c r="G81">
-        <v>-3.30871923961418e-05</v>
+        <v>-3.30871923943654e-05</v>
       </c>
       <c r="H81">
-        <v>-0.00022385837326</v>
+        <v>-0.000223858373260111</v>
       </c>
       <c r="I81">
-        <v>0.000306197505975714</v>
+        <v>0.00030619750597749</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2761,16 +2761,16 @@
         <v>30</v>
       </c>
       <c r="B82">
-        <v>-0.000398981549240673</v>
+        <v>-0.000398981549238897</v>
       </c>
       <c r="C82">
-        <v>-1.75390131822439e-05</v>
+        <v>-1.75390131813558e-05</v>
       </c>
       <c r="D82">
         <v>0.000477422872663169</v>
       </c>
       <c r="E82">
-        <v>-0.000423665657778294</v>
+        <v>-0.000423665657776517</v>
       </c>
       <c r="F82">
         <v>-0.00022278109070184</v>
@@ -2779,7 +2779,7 @@
         <v>0.000249110597441593</v>
       </c>
       <c r="H82">
-        <v>-0.000485202531207762</v>
+        <v>-0.000485202531207651</v>
       </c>
       <c r="I82">
         <v>-0.000143239626317904</v>
@@ -2790,28 +2790,28 @@
         <v>31</v>
       </c>
       <c r="B83">
-        <v>0.000231873553017792</v>
+        <v>0.000231873553011575</v>
       </c>
       <c r="C83">
-        <v>0.000263179233453315</v>
+        <v>0.000263179233448874</v>
       </c>
       <c r="D83">
-        <v>-0.000181096446741691</v>
+        <v>-0.000181096446739915</v>
       </c>
       <c r="E83">
-        <v>0.000147481795680804</v>
+        <v>0.000147481795673698</v>
       </c>
       <c r="F83">
-        <v>0.000281653529380588</v>
+        <v>0.000281653529380144</v>
       </c>
       <c r="G83">
-        <v>5.52078558579971e-05</v>
+        <v>5.52078558575531e-05</v>
       </c>
       <c r="H83">
-        <v>-0.000376099502792049</v>
+        <v>-0.00037609950279166</v>
       </c>
       <c r="I83">
-        <v>-8.68735278278798e-05</v>
+        <v>-8.68735278283239e-05</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2819,28 +2819,28 @@
         <v>32</v>
       </c>
       <c r="B84">
-        <v>7.84598081784438e-05</v>
+        <v>7.84598081775556e-05</v>
       </c>
       <c r="C84">
-        <v>-0.000159365883780183</v>
+        <v>-0.000159365883781959</v>
       </c>
       <c r="D84">
-        <v>-0.000226860028639919</v>
+        <v>-0.000226860028640807</v>
       </c>
       <c r="E84">
-        <v>-0.000282697252449005</v>
+        <v>-0.000282697252449893</v>
       </c>
       <c r="F84">
-        <v>-0.000188848937933805</v>
+        <v>-0.000188848937934694</v>
       </c>
       <c r="G84">
-        <v>-9.3481469399137e-05</v>
+        <v>-9.34814693995811e-05</v>
       </c>
       <c r="H84">
-        <v>0.00036977988558784</v>
+        <v>0.000369779885588062</v>
       </c>
       <c r="I84">
-        <v>-7.90816539819605e-05</v>
+        <v>-7.90816539826267e-05</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2848,28 +2848,28 @@
         <v>33</v>
       </c>
       <c r="B85">
-        <v>9.14134750589213e-05</v>
+        <v>9.14134750615858e-05</v>
       </c>
       <c r="C85">
         <v>-0.000303352541698665</v>
       </c>
       <c r="D85">
-        <v>-0.00031932643763799</v>
+        <v>-0.000319326437640655</v>
       </c>
       <c r="E85">
-        <v>-0.000387848979549688</v>
+        <v>-0.000387848979547911</v>
       </c>
       <c r="F85">
-        <v>-0.000174565554480921</v>
+        <v>-0.000174565554480033</v>
       </c>
       <c r="G85">
-        <v>0.000245800692989739</v>
+        <v>0.000245800692991072</v>
       </c>
       <c r="H85">
-        <v>-7.2907290552704e-05</v>
+        <v>-7.29072905525929e-05</v>
       </c>
       <c r="I85">
-        <v>0.000265726465895399</v>
+        <v>0.00026572646589651</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2895,7 +2895,7 @@
         <v>0.00046750683948793</v>
       </c>
       <c r="H86">
-        <v>0.000395259399512182</v>
+        <v>0.000395259399512127</v>
       </c>
       <c r="I86">
         <v>0.000301155197490299</v>
@@ -2906,16 +2906,16 @@
         <v>35</v>
       </c>
       <c r="B87">
-        <v>6.74836579861449e-05</v>
+        <v>6.74836579843685e-05</v>
       </c>
       <c r="C87">
-        <v>-0.000412586711559193</v>
+        <v>-0.000412586711560969</v>
       </c>
       <c r="D87">
         <v>-0.000469486862454627</v>
       </c>
       <c r="E87">
-        <v>0.000165036272309571</v>
+        <v>0.000165036272307795</v>
       </c>
       <c r="F87">
         <v>-0.000205880768404887</v>
@@ -2924,7 +2924,7 @@
         <v>-5.79975754266826e-05</v>
       </c>
       <c r="H87">
-        <v>-0.00018636081692508</v>
+        <v>-0.000186360816924913</v>
       </c>
       <c r="I87">
         <v>0.000370582252681384</v>
@@ -2935,7 +2935,7 @@
         <v>36</v>
       </c>
       <c r="B88">
-        <v>-0.000451268439928043</v>
+        <v>-0.000451268439927155</v>
       </c>
       <c r="C88">
         <v>7.7757658177191e-05</v>
@@ -2944,19 +2944,19 @@
         <v>-6.50992174966447e-06</v>
       </c>
       <c r="E88">
-        <v>7.65837992009466e-05</v>
+        <v>7.65837992018348e-05</v>
       </c>
       <c r="F88">
         <v>0.000487619300846065</v>
       </c>
       <c r="G88">
-        <v>3.44298289360889e-05</v>
+        <v>3.4429828936311e-05</v>
       </c>
       <c r="H88">
         <v>0.000174990702500322</v>
       </c>
       <c r="I88">
-        <v>-0.00017644495229252</v>
+        <v>-0.000176444952292298</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2976,16 +2976,16 @@
         <v>-0.000102127625856596</v>
       </c>
       <c r="F89">
-        <v>0.000146123032139789</v>
+        <v>0.000146123032138457</v>
       </c>
       <c r="G89">
-        <v>0.000118966472592463</v>
+        <v>0.000118966472591131</v>
       </c>
       <c r="H89">
-        <v>0.000437039752803903</v>
+        <v>0.000437039752803958</v>
       </c>
       <c r="I89">
-        <v>2.77321622033089e-05</v>
+        <v>2.77321622019766e-05</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2993,16 +2993,16 @@
         <v>38</v>
       </c>
       <c r="B90">
-        <v>-8.40902968928248e-05</v>
+        <v>-8.40902968910484e-05</v>
       </c>
       <c r="C90">
-        <v>0.000352955052345116</v>
+        <v>0.000352955052346893</v>
       </c>
       <c r="D90">
         <v>2.53941359109611e-05</v>
       </c>
       <c r="E90">
-        <v>-0.000214499221555364</v>
+        <v>-0.000214499221553588</v>
       </c>
       <c r="F90">
         <v>0.00015702960085795</v>
@@ -3011,7 +3011,7 @@
         <v>-0.000410775400641494</v>
       </c>
       <c r="H90">
-        <v>-0.000467839078235222</v>
+        <v>-0.000467839078234999</v>
       </c>
       <c r="I90">
         <v>0.000377209040492099</v>
@@ -3034,16 +3034,16 @@
         <v>-0.000232410138385486</v>
       </c>
       <c r="F91">
-        <v>-5.84144869641978e-05</v>
+        <v>-5.84144869646419e-05</v>
       </c>
       <c r="G91">
-        <v>-0.000134506249148014</v>
+        <v>-0.000134506249148236</v>
       </c>
       <c r="H91">
-        <v>0.000375293925361786</v>
+        <v>0.000375293925361897</v>
       </c>
       <c r="I91">
-        <v>0.000297970781067303</v>
+        <v>0.000297970781066859</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3051,28 +3051,28 @@
         <v>40</v>
       </c>
       <c r="B92">
-        <v>0.000444888422455048</v>
+        <v>0.000444888422455492</v>
       </c>
       <c r="C92">
-        <v>0.000239109436018126</v>
+        <v>0.000239109436019902</v>
       </c>
       <c r="D92">
-        <v>-0.000136557672896664</v>
+        <v>-0.000136557672894444</v>
       </c>
       <c r="E92">
         <v>-0.000229158246694006</v>
       </c>
       <c r="F92">
-        <v>-4.76334876651219e-05</v>
+        <v>-4.76334876648998e-05</v>
       </c>
       <c r="G92">
-        <v>0.00039945535111352</v>
+        <v>0.000399455351113964</v>
       </c>
       <c r="H92">
-        <v>-0.000129722345114436</v>
+        <v>-0.000129722345114214</v>
       </c>
       <c r="I92">
-        <v>0.000251109030817487</v>
+        <v>0.000251109030817709</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3080,28 +3080,28 @@
         <v>41</v>
       </c>
       <c r="B93">
-        <v>-0.000416018979370048</v>
+        <v>-0.000416018979367827</v>
       </c>
       <c r="C93">
-        <v>-0.000313324355621702</v>
+        <v>-0.000313324355619926</v>
       </c>
       <c r="D93">
         <v>-1.49114254277549e-07</v>
       </c>
       <c r="E93">
-        <v>-0.000356340478864237</v>
+        <v>-0.000356340478861572</v>
       </c>
       <c r="F93">
-        <v>-0.000324126334583008</v>
+        <v>-0.000324126334582786</v>
       </c>
       <c r="G93">
-        <v>-0.00032308366119671</v>
+        <v>-0.000323083661196266</v>
       </c>
       <c r="H93">
         <v>-8.51887905996551e-05</v>
       </c>
       <c r="I93">
-        <v>-0.000265664299077706</v>
+        <v>-0.000265664299077262</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3112,25 +3112,25 @@
         <v>0.000132635126908198</v>
       </c>
       <c r="C94">
-        <v>0.000210022851026892</v>
+        <v>0.000210022851026004</v>
       </c>
       <c r="D94">
-        <v>1.04783694276911e-05</v>
+        <v>1.04783694263588e-05</v>
       </c>
       <c r="E94">
         <v>0.00017558258187611</v>
       </c>
       <c r="F94">
-        <v>-0.000366340206112925</v>
+        <v>-0.000366340206114035</v>
       </c>
       <c r="G94">
-        <v>0.000219024829874792</v>
+        <v>0.000219024829873682</v>
       </c>
       <c r="H94">
-        <v>0.000404253844372454</v>
+        <v>0.000404253844372648</v>
       </c>
       <c r="I94">
-        <v>0.000282229783994614</v>
+        <v>0.000282229783993504</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3138,28 +3138,28 @@
         <v>43</v>
       </c>
       <c r="B95">
-        <v>-0.000280735804695453</v>
+        <v>-0.000280735804694121</v>
       </c>
       <c r="C95">
-        <v>0.000369342117407356</v>
+        <v>0.000369342117409133</v>
       </c>
       <c r="D95">
-        <v>-0.000474122260682108</v>
+        <v>-0.00047412226068122</v>
       </c>
       <c r="E95">
-        <v>0.000113390675065439</v>
+        <v>0.000113390675066771</v>
       </c>
       <c r="F95">
-        <v>0.000382363525252671</v>
+        <v>0.000382363525251117</v>
       </c>
       <c r="G95">
-        <v>-0.000417648812747862</v>
+        <v>-0.000417648812749416</v>
       </c>
       <c r="H95">
-        <v>0.000234464024021636</v>
+        <v>0.000234464024021663</v>
       </c>
       <c r="I95">
-        <v>0.000465568099759617</v>
+        <v>0.000465568099758062</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3167,28 +3167,28 @@
         <v>44</v>
       </c>
       <c r="B96">
-        <v>-1.8952566860353e-05</v>
+        <v>-1.89525668612411e-05</v>
       </c>
       <c r="C96">
-        <v>-0.000265812728980741</v>
+        <v>-0.000265812728981629</v>
       </c>
       <c r="D96">
         <v>0.000229104662205604</v>
       </c>
       <c r="E96">
-        <v>0.000174269841910046</v>
+        <v>0.000174269841908714</v>
       </c>
       <c r="F96">
-        <v>-0.000487045150253662</v>
+        <v>-0.000487045150253218</v>
       </c>
       <c r="G96">
-        <v>0.000358145844974178</v>
+        <v>0.000358145844974622</v>
       </c>
       <c r="H96">
-        <v>0.000303858164233339</v>
+        <v>0.000303858164233367</v>
       </c>
       <c r="I96">
-        <v>-0.000109982622624516</v>
+        <v>-0.000109982622624072</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3214,7 +3214,7 @@
         <v>0.000171022236219009</v>
       </c>
       <c r="H97">
-        <v>-0.000485153358764145</v>
+        <v>-0.000485153358764034</v>
       </c>
       <c r="I97">
         <v>0.000194403484052863</v>
@@ -3225,28 +3225,28 @@
         <v>46</v>
       </c>
       <c r="B98">
-        <v>0.000143037140722502</v>
+        <v>0.000143037140721169</v>
       </c>
       <c r="C98">
-        <v>0.000421863068202022</v>
+        <v>0.000421863068201134</v>
       </c>
       <c r="D98">
         <v>0.000137055503716788</v>
       </c>
       <c r="E98">
-        <v>0.000447603946996722</v>
+        <v>0.000447603946995834</v>
       </c>
       <c r="F98">
-        <v>0.000461525755119929</v>
+        <v>0.000461525755118819</v>
       </c>
       <c r="G98">
-        <v>-0.000322740497962437</v>
+        <v>-0.000322740497963547</v>
       </c>
       <c r="H98">
-        <v>-0.000225218913475489</v>
+        <v>-0.000225218913475517</v>
       </c>
       <c r="I98">
-        <v>4.87229155592406e-05</v>
+        <v>4.87229155581304e-05</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3254,28 +3254,28 @@
         <v>47</v>
       </c>
       <c r="B99">
-        <v>0.000378500352318234</v>
+        <v>0.000378500352317346</v>
       </c>
       <c r="C99">
         <v>-4.75013246248324e-05</v>
       </c>
       <c r="D99">
-        <v>-0.000108911610125162</v>
+        <v>-0.000108911610125606</v>
       </c>
       <c r="E99">
         <v>3.16177741597201e-05</v>
       </c>
       <c r="F99">
-        <v>-0.00037906401809662</v>
+        <v>-0.000379064018097175</v>
       </c>
       <c r="G99">
-        <v>-0.00043712510368088</v>
+        <v>-0.000437125103681546</v>
       </c>
       <c r="H99">
-        <v>-3.47538080402998e-06</v>
+        <v>-3.47538080394671e-06</v>
       </c>
       <c r="I99">
-        <v>0.000152020621882687</v>
+        <v>0.000152020621882021</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3283,28 +3283,28 @@
         <v>48</v>
       </c>
       <c r="B100">
-        <v>-3.59666767635325e-05</v>
+        <v>-3.59666767644207e-05</v>
       </c>
       <c r="C100">
-        <v>0.000106546208318292</v>
+        <v>0.000106546208317848</v>
       </c>
       <c r="D100">
-        <v>-8.02412623266413e-05</v>
+        <v>-8.02412623275295e-05</v>
       </c>
       <c r="E100">
         <v>0.000493600756623191</v>
       </c>
       <c r="F100">
-        <v>-0.000144371379120045</v>
+        <v>-0.000144371379120822</v>
       </c>
       <c r="G100">
-        <v>-0.000458420854501318</v>
+        <v>-0.000458420854502095</v>
       </c>
       <c r="H100">
-        <v>9.8736418816775e-05</v>
+        <v>9.87364188167472e-05</v>
       </c>
       <c r="I100">
-        <v>0.000230225492945269</v>
+        <v>0.000230225492944491</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3318,22 +3318,22 @@
         <v>-0.000470673231891094</v>
       </c>
       <c r="D101">
-        <v>5.34607484601324e-05</v>
+        <v>5.34607484596883e-05</v>
       </c>
       <c r="E101">
         <v>-0.000476156431572505</v>
       </c>
       <c r="F101">
-        <v>-0.000103261342438321</v>
+        <v>-0.000103261342438543</v>
       </c>
       <c r="G101">
-        <v>0.000352698482609992</v>
+        <v>0.00035269848260977</v>
       </c>
       <c r="H101">
-        <v>5.94432376410658e-06</v>
+        <v>5.9443237641621e-06</v>
       </c>
       <c r="I101">
-        <v>3.40090497511492e-05</v>
+        <v>3.40090497509271e-05</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3353,16 +3353,16 @@
         <v>-0.000179308508738263</v>
       </c>
       <c r="F102">
-        <v>-0.000486500775584542</v>
+        <v>-0.000486500775584431</v>
       </c>
       <c r="G102">
-        <v>-0.000240876374218768</v>
+        <v>-0.000240876374218657</v>
       </c>
       <c r="H102">
-        <v>-0.000351535975192677</v>
+        <v>-0.00035153597519258</v>
       </c>
       <c r="I102">
-        <v>0.000336712858032051</v>
+        <v>0.000336712858032162</v>
       </c>
     </row>
   </sheetData>
@@ -6433,7 +6433,7 @@
         <v>0.13462615261663</v>
       </c>
       <c r="I3">
-        <v>0.997524253478517</v>
+        <v>0.997524253478518</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6502,7 +6502,7 @@
         <v>2.73677099070032</v>
       </c>
       <c r="C6">
-        <v>3.68349082888589</v>
+        <v>3.68349082888588</v>
       </c>
       <c r="D6">
         <v>2.7120635325319</v>
@@ -6514,7 +6514,7 @@
         <v>1.14467867141937</v>
       </c>
       <c r="G6">
-        <v>1.14590667778466</v>
+        <v>1.14590667778465</v>
       </c>
       <c r="H6">
         <v>0.158505403081676</v>
@@ -6528,7 +6528,7 @@
         <v>-45</v>
       </c>
       <c r="B7">
-        <v>2.84021076546224</v>
+        <v>2.84021076546225</v>
       </c>
       <c r="C7">
         <v>3.81801790641573</v>
@@ -6636,7 +6636,7 @@
         <v>0.197143176922443</v>
       </c>
       <c r="I10">
-        <v>1.35553740070939</v>
+        <v>1.3555374007094</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6789,7 +6789,7 @@
         <v>-36</v>
       </c>
       <c r="B16">
-        <v>4.05225003890442</v>
+        <v>4.05225003890443</v>
       </c>
       <c r="C16">
         <v>5.37789199852774</v>
@@ -6839,7 +6839,7 @@
         <v>0.2862167997553</v>
       </c>
       <c r="I17">
-        <v>1.86851995290479</v>
+        <v>1.86851995290478</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6891,13 +6891,13 @@
         <v>2.06776949564743</v>
       </c>
       <c r="G19">
-        <v>2.07323363859746</v>
+        <v>2.07323363859747</v>
       </c>
       <c r="H19">
         <v>0.317231633995628</v>
       </c>
       <c r="I19">
-        <v>2.04881961397399</v>
+        <v>2.048819613974</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6908,7 +6908,7 @@
         <v>4.79712501991611</v>
       </c>
       <c r="C20">
-        <v>6.32338013959974</v>
+        <v>6.32338013959975</v>
       </c>
       <c r="D20">
         <v>4.78578946033094</v>
@@ -6917,7 +6917,7 @@
         <v>4.13295966968827</v>
       </c>
       <c r="F20">
-        <v>2.16434056302445</v>
+        <v>2.16434056302446</v>
       </c>
       <c r="G20">
         <v>2.17062596470995</v>
@@ -6940,22 +6940,22 @@
         <v>6.58852245591531</v>
       </c>
       <c r="D21">
-        <v>4.98603912575373</v>
+        <v>4.98603912575374</v>
       </c>
       <c r="E21">
-        <v>4.3067437802304</v>
+        <v>4.30674378023041</v>
       </c>
       <c r="F21">
-        <v>2.26468641635221</v>
+        <v>2.26468641635222</v>
       </c>
       <c r="G21">
         <v>2.2719371247718</v>
       </c>
       <c r="H21">
-        <v>0.351211571787355</v>
+        <v>0.351211571787356</v>
       </c>
       <c r="I21">
-        <v>2.24462663504624</v>
+        <v>2.24462663504625</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6992,7 +6992,7 @@
         <v>-29</v>
       </c>
       <c r="B23">
-        <v>5.45785393748697</v>
+        <v>5.45785393748696</v>
       </c>
       <c r="C23">
         <v>7.15489407196737</v>
@@ -7033,7 +7033,7 @@
         <v>4.90520799508685</v>
       </c>
       <c r="F24">
-        <v>2.58717346435391</v>
+        <v>2.58717346435392</v>
       </c>
       <c r="G24">
         <v>2.59856003839117</v>
@@ -7082,7 +7082,7 @@
         <v>6.20973633030494</v>
       </c>
       <c r="C26">
-        <v>8.09391587850209</v>
+        <v>8.09391587850208</v>
       </c>
       <c r="D26">
         <v>6.04521097865995</v>
@@ -7100,7 +7100,7 @@
         <v>0.45617819302435</v>
       </c>
       <c r="I26">
-        <v>2.79698930037067</v>
+        <v>2.79698930037068</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -7111,7 +7111,7 @@
         <v>6.47968698918164</v>
       </c>
       <c r="C27">
-        <v>8.42937238918613</v>
+        <v>8.42937238918614</v>
       </c>
       <c r="D27">
         <v>6.25739811923567</v>
@@ -7204,16 +7204,16 @@
         <v>6.85330716685777</v>
       </c>
       <c r="E30">
-        <v>6.5651665603052</v>
+        <v>6.56516656030521</v>
       </c>
       <c r="F30">
         <v>3.31309335060308</v>
       </c>
       <c r="G30">
-        <v>3.34250274016311</v>
+        <v>3.34250274016312</v>
       </c>
       <c r="H30">
-        <v>0.579890701952124</v>
+        <v>0.579890701952125</v>
       </c>
       <c r="I30">
         <v>3.29181581225126</v>
@@ -7224,16 +7224,16 @@
         <v>-21</v>
       </c>
       <c r="B31">
-        <v>7.63562401720663</v>
+        <v>7.63562401720664</v>
       </c>
       <c r="C31">
-        <v>9.85730103303841</v>
+        <v>9.85730103303842</v>
       </c>
       <c r="D31">
         <v>7.02956427650315</v>
       </c>
       <c r="E31">
-        <v>6.91025395614741</v>
+        <v>6.91025395614742</v>
       </c>
       <c r="F31">
         <v>3.44324305448739</v>
@@ -7311,7 +7311,7 @@
         <v>-18</v>
       </c>
       <c r="B34">
-        <v>8.53793873390496</v>
+        <v>8.53793873390497</v>
       </c>
       <c r="C34">
         <v>10.9647701077894</v>
@@ -7323,7 +7323,7 @@
         <v>8.03319914411858</v>
       </c>
       <c r="F34">
-        <v>3.85415408227327</v>
+        <v>3.85415408227328</v>
       </c>
       <c r="G34">
         <v>3.9053408115187</v>
@@ -7346,7 +7346,7 @@
         <v>11.325885264914</v>
       </c>
       <c r="D35">
-        <v>7.57432962596407</v>
+        <v>7.57432962596408</v>
       </c>
       <c r="E35">
         <v>8.42052300936455</v>
@@ -7361,7 +7361,7 @@
         <v>0.805486812100101</v>
       </c>
       <c r="I35">
-        <v>3.97676541256599</v>
+        <v>3.97676541256598</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -7369,7 +7369,7 @@
         <v>-16</v>
       </c>
       <c r="B36">
-        <v>9.11918737757505</v>
+        <v>9.11918737757506</v>
       </c>
       <c r="C36">
         <v>11.67689735595</v>
@@ -7398,7 +7398,7 @@
         <v>-15</v>
       </c>
       <c r="B37">
-        <v>9.39384525654835</v>
+        <v>9.39384525654834</v>
       </c>
       <c r="C37">
         <v>12.0137725471625</v>
@@ -7407,19 +7407,19 @@
         <v>7.76143322166356</v>
       </c>
       <c r="E37">
-        <v>9.17010824148836</v>
+        <v>9.17010824148835</v>
       </c>
       <c r="F37">
         <v>4.31278018174479</v>
       </c>
       <c r="G37">
-        <v>4.37999539327477</v>
+        <v>4.37999539327478</v>
       </c>
       <c r="H37">
         <v>0.900795977038488</v>
       </c>
       <c r="I37">
-        <v>4.28636515626696</v>
+        <v>4.28636515626697</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -7462,16 +7462,16 @@
         <v>12.6287081415594</v>
       </c>
       <c r="D39">
-        <v>7.93737793015264</v>
+        <v>7.93737793015263</v>
       </c>
       <c r="E39">
         <v>9.82254045136061</v>
       </c>
       <c r="F39">
-        <v>4.65605168616806</v>
+        <v>4.65605168616807</v>
       </c>
       <c r="G39">
-        <v>4.72861012595228</v>
+        <v>4.72861012595229</v>
       </c>
       <c r="H39">
         <v>0.977094289462333</v>
@@ -7500,7 +7500,7 @@
         <v>4.83908050015675</v>
       </c>
       <c r="G40">
-        <v>4.91180644321393</v>
+        <v>4.91180644321394</v>
       </c>
       <c r="H40">
         <v>1.00237068345724</v>
@@ -7535,7 +7535,7 @@
         <v>1.01640963861867</v>
       </c>
       <c r="I41">
-        <v>4.99685846041636</v>
+        <v>4.99685846041637</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -7584,7 +7584,7 @@
         <v>10.5562928738445</v>
       </c>
       <c r="F43">
-        <v>5.41357677631749</v>
+        <v>5.4135767763175</v>
       </c>
       <c r="G43">
         <v>5.4771201543387</v>
@@ -7616,7 +7616,7 @@
         <v>5.60332017199829</v>
       </c>
       <c r="G44">
-        <v>5.66163665620429</v>
+        <v>5.6616366562043</v>
       </c>
       <c r="H44">
         <v>0.982061163189724</v>
@@ -7729,13 +7729,13 @@
         <v>10.3082993925758</v>
       </c>
       <c r="F48">
-        <v>6.25784313018832</v>
+        <v>6.25784313018833</v>
       </c>
       <c r="G48">
         <v>6.29535710942573</v>
       </c>
       <c r="H48">
-        <v>0.80008616578979</v>
+        <v>0.800086165789791</v>
       </c>
       <c r="I48">
         <v>6.24430806915457</v>
@@ -7758,16 +7758,16 @@
         <v>10.1760102383068</v>
       </c>
       <c r="F49">
-        <v>6.38218625132104</v>
+        <v>6.38218625132105</v>
       </c>
       <c r="G49">
-        <v>6.41588942275496</v>
+        <v>6.41588942275497</v>
       </c>
       <c r="H49">
         <v>0.749292462754137</v>
       </c>
       <c r="I49">
-        <v>6.37198539627005</v>
+        <v>6.37198539627006</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -7825,7 +7825,7 @@
         <v>0.664172992584463</v>
       </c>
       <c r="I51">
-        <v>6.57224380956424</v>
+        <v>6.57224380956425</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7842,7 +7842,7 @@
         <v>9.95445289439845</v>
       </c>
       <c r="E52">
-        <v>9.77428706544528</v>
+        <v>9.77428706544527</v>
       </c>
       <c r="F52">
         <v>6.6492931248847</v>
@@ -7851,7 +7851,7 @@
         <v>6.67626421751512</v>
       </c>
       <c r="H52">
-        <v>0.633796249051205</v>
+        <v>0.633796249051206</v>
       </c>
       <c r="I52">
         <v>6.64611211286429</v>
@@ -7874,7 +7874,7 @@
         <v>9.64903549067285</v>
       </c>
       <c r="F53">
-        <v>6.70589984921108</v>
+        <v>6.70589984921109</v>
       </c>
       <c r="G53">
         <v>6.73197206950494</v>
@@ -7883,7 +7883,7 @@
         <v>0.612349792697253</v>
       </c>
       <c r="I53">
-        <v>6.70406411633855</v>
+        <v>6.70406411633856</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -7903,10 +7903,10 @@
         <v>9.52626458632461</v>
       </c>
       <c r="F54">
-        <v>6.74821544297612</v>
+        <v>6.74821544297613</v>
       </c>
       <c r="G54">
-        <v>6.7738539197938</v>
+        <v>6.77385391979381</v>
       </c>
       <c r="H54">
         <v>0.59915409715168</v>
@@ -7923,22 +7923,22 @@
         <v>10.8339833215227</v>
       </c>
       <c r="C55">
-        <v>13.9402659985358</v>
+        <v>13.9402659985359</v>
       </c>
       <c r="D55">
         <v>10.2920908170267</v>
       </c>
       <c r="E55">
-        <v>9.40233389770905</v>
+        <v>9.40233389770906</v>
       </c>
       <c r="F55">
         <v>6.77693017103583</v>
       </c>
       <c r="G55">
-        <v>6.80252465781428</v>
+        <v>6.80252465781429</v>
       </c>
       <c r="H55">
-        <v>0.592870851403473</v>
+        <v>0.592870851403474</v>
       </c>
       <c r="I55">
         <v>6.77663971845394</v>
@@ -7964,7 +7964,7 @@
         <v>6.7922620145416</v>
       </c>
       <c r="G56">
-        <v>6.81798253031135</v>
+        <v>6.81798253031136</v>
       </c>
       <c r="H56">
         <v>0.591960419238848</v>
@@ -7993,13 +7993,13 @@
         <v>6.79353214287942</v>
       </c>
       <c r="G57">
-        <v>6.81950477819121</v>
+        <v>6.81950477819122</v>
       </c>
       <c r="H57">
         <v>0.595127564668929</v>
       </c>
       <c r="I57">
-        <v>6.79348721950251</v>
+        <v>6.79348721950252</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -8016,7 +8016,7 @@
         <v>10.609988065611</v>
       </c>
       <c r="E58">
-        <v>8.99367209646158</v>
+        <v>8.99367209646157</v>
       </c>
       <c r="F58">
         <v>6.77951531894777</v>
@@ -8025,7 +8025,7 @@
         <v>6.80567689015731</v>
       </c>
       <c r="H58">
-        <v>0.601645514130326</v>
+        <v>0.601645514130327</v>
       </c>
       <c r="I58">
         <v>6.77903094907732</v>
@@ -8112,7 +8112,7 @@
         <v>6.6515902531964</v>
       </c>
       <c r="H61">
-        <v>0.643383077386746</v>
+        <v>0.643383077386747</v>
       </c>
       <c r="I61">
         <v>6.62040112924811</v>
@@ -8132,7 +8132,7 @@
         <v>10.7175088331874</v>
       </c>
       <c r="E62">
-        <v>8.41827508401158</v>
+        <v>8.41827508401159</v>
       </c>
       <c r="F62">
         <v>6.53040670769319</v>
@@ -8190,7 +8190,7 @@
         <v>10.4735570518</v>
       </c>
       <c r="E64">
-        <v>8.2119913656155</v>
+        <v>8.21199136561551</v>
       </c>
       <c r="F64">
         <v>6.26619229888384</v>
@@ -8228,7 +8228,7 @@
         <v>6.12113263343022</v>
       </c>
       <c r="H65">
-        <v>0.758182914923238</v>
+        <v>0.758182914923239</v>
       </c>
       <c r="I65">
         <v>6.07399566871453</v>
@@ -8289,7 +8289,7 @@
         <v>0.817310238054631</v>
       </c>
       <c r="I67">
-        <v>5.65963356618606</v>
+        <v>5.65963356618607</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -8315,7 +8315,7 @@
         <v>5.49053743213884</v>
       </c>
       <c r="H68">
-        <v>0.839305862028257</v>
+        <v>0.839305862028258</v>
       </c>
       <c r="I68">
         <v>5.42600838219798</v>
@@ -8326,22 +8326,22 @@
         <v>17</v>
       </c>
       <c r="B69">
-        <v>9.46055414763996</v>
+        <v>9.46055414763995</v>
       </c>
       <c r="C69">
         <v>11.9624015827373</v>
       </c>
       <c r="D69">
-        <v>8.94259655307762</v>
+        <v>8.94259655307761</v>
       </c>
       <c r="E69">
-        <v>7.94537717893614</v>
+        <v>7.94537717893613</v>
       </c>
       <c r="F69">
         <v>5.22957581779294</v>
       </c>
       <c r="G69">
-        <v>5.24986926869145</v>
+        <v>5.24986926869146</v>
       </c>
       <c r="H69">
         <v>0.854013343286454</v>
@@ -8355,7 +8355,7 @@
         <v>18</v>
       </c>
       <c r="B70">
-        <v>9.18892350846097</v>
+        <v>9.18892350846098</v>
       </c>
       <c r="C70">
         <v>11.6218145795163</v>
@@ -8399,13 +8399,13 @@
         <v>4.72648081133922</v>
       </c>
       <c r="G71">
-        <v>4.74538714593254</v>
+        <v>4.74538714593255</v>
       </c>
       <c r="H71">
         <v>0.858708833864593</v>
       </c>
       <c r="I71">
-        <v>4.66704599328362</v>
+        <v>4.66704599328363</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -8431,10 +8431,10 @@
         <v>4.48905207496739</v>
       </c>
       <c r="H72">
-        <v>0.848770338484422</v>
+        <v>0.848770338484423</v>
       </c>
       <c r="I72">
-        <v>4.40808092533225</v>
+        <v>4.40808092533226</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -8451,19 +8451,19 @@
         <v>7.32226585260605</v>
       </c>
       <c r="E73">
-        <v>7.56944931691707</v>
+        <v>7.56944931691708</v>
       </c>
       <c r="F73">
-        <v>4.21688642224405</v>
+        <v>4.21688642224406</v>
       </c>
       <c r="G73">
-        <v>4.23448783347698</v>
+        <v>4.23448783347699</v>
       </c>
       <c r="H73">
         <v>0.831464879187308</v>
       </c>
       <c r="I73">
-        <v>4.1520541141154</v>
+        <v>4.15205411411541</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -8471,7 +8471,7 @@
         <v>22</v>
       </c>
       <c r="B74">
-        <v>8.01040874558764</v>
+        <v>8.01040874558765</v>
       </c>
       <c r="C74">
         <v>10.1583758447318</v>
@@ -8500,19 +8500,19 @@
         <v>23</v>
       </c>
       <c r="B75">
-        <v>7.70929254086631</v>
+        <v>7.70929254086632</v>
       </c>
       <c r="C75">
-        <v>9.78613496284623</v>
+        <v>9.78613496284624</v>
       </c>
       <c r="D75">
         <v>6.57267979409678</v>
       </c>
       <c r="E75">
-        <v>7.25040121891977</v>
+        <v>7.25040121891978</v>
       </c>
       <c r="F75">
-        <v>3.72528117593157</v>
+        <v>3.72528117593158</v>
       </c>
       <c r="G75">
         <v>3.74158843371446</v>
@@ -8532,7 +8532,7 @@
         <v>7.4109873024465</v>
       </c>
       <c r="C76">
-        <v>9.41752875639284</v>
+        <v>9.41752875639285</v>
       </c>
       <c r="D76">
         <v>6.22970177675694</v>
@@ -8541,7 +8541,7 @@
         <v>7.06262441661438</v>
       </c>
       <c r="F76">
-        <v>3.49184919763847</v>
+        <v>3.49184919763848</v>
       </c>
       <c r="G76">
         <v>3.50749247779368</v>
@@ -8593,13 +8593,13 @@
         <v>8.7000666025237</v>
       </c>
       <c r="D78">
-        <v>5.61419168142743</v>
+        <v>5.61419168142742</v>
       </c>
       <c r="E78">
         <v>6.64620272430351</v>
       </c>
       <c r="F78">
-        <v>3.05677792695271</v>
+        <v>3.05677792695272</v>
       </c>
       <c r="G78">
         <v>3.07105332110886</v>
@@ -8619,7 +8619,7 @@
         <v>6.55105397805398</v>
       </c>
       <c r="C79">
-        <v>8.35459095848514</v>
+        <v>8.35459095848513</v>
       </c>
       <c r="D79">
         <v>5.34117370074802</v>
@@ -8680,7 +8680,7 @@
         <v>7.69586354216839</v>
       </c>
       <c r="D81">
-        <v>4.85853269310806</v>
+        <v>4.85853269310805</v>
       </c>
       <c r="E81">
         <v>5.96833106736521</v>
@@ -8689,7 +8689,7 @@
         <v>2.49278370172005</v>
       </c>
       <c r="G81">
-        <v>2.5049669128076</v>
+        <v>2.50496691280761</v>
       </c>
       <c r="H81">
         <v>0.55677614162674</v>
@@ -8732,7 +8732,7 @@
         <v>31</v>
       </c>
       <c r="B83">
-        <v>5.52623187355302</v>
+        <v>5.52623187355301</v>
       </c>
       <c r="C83">
         <v>7.08426317923345</v>
@@ -8741,7 +8741,7 @@
         <v>4.44881890355326</v>
       </c>
       <c r="E83">
-        <v>5.51314748179568</v>
+        <v>5.51314748179567</v>
       </c>
       <c r="F83">
         <v>2.17628165352938</v>
@@ -8848,7 +8848,7 @@
         <v>35</v>
       </c>
       <c r="B87">
-        <v>4.66206748365799</v>
+        <v>4.66206748365798</v>
       </c>
       <c r="C87">
         <v>6.00758741328844</v>
@@ -8944,7 +8944,7 @@
         <v>3.40002539413591</v>
       </c>
       <c r="E90">
-        <v>4.09478550077844</v>
+        <v>4.09478550077845</v>
       </c>
       <c r="F90">
         <v>1.38415702960086</v>
@@ -8999,13 +8999,13 @@
         <v>4.91823910943602</v>
       </c>
       <c r="D92">
-        <v>3.1718634423271</v>
+        <v>3.17186344232711</v>
       </c>
       <c r="E92">
         <v>3.75877084175331</v>
       </c>
       <c r="F92">
-        <v>1.22795236651233</v>
+        <v>1.22795236651234</v>
       </c>
       <c r="G92">
         <v>1.23339945535111</v>
@@ -9069,7 +9069,7 @@
         <v>1.09921902482987</v>
       </c>
       <c r="H94">
-        <v>0.208404253844372</v>
+        <v>0.208404253844373</v>
       </c>
       <c r="I94">
         <v>1.07928222978399</v>
@@ -9080,7 +9080,7 @@
         <v>43</v>
       </c>
       <c r="B95">
-        <v>3.3687192641953</v>
+        <v>3.36871926419531</v>
       </c>
       <c r="C95">
         <v>4.38236934211741</v>
@@ -9121,16 +9121,16 @@
         <v>3.17917426984191</v>
       </c>
       <c r="F96">
-        <v>0.980512954849746</v>
+        <v>0.980512954849747</v>
       </c>
       <c r="G96">
-        <v>0.984358145844974</v>
+        <v>0.984358145844975</v>
       </c>
       <c r="H96">
         <v>0.179303858164233</v>
       </c>
       <c r="I96">
-        <v>0.967890017377375</v>
+        <v>0.967890017377376</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -9179,16 +9179,16 @@
         <v>2.931447603947</v>
       </c>
       <c r="F98">
-        <v>0.88246152575512</v>
+        <v>0.882461525755119</v>
       </c>
       <c r="G98">
-        <v>0.885677259502037</v>
+        <v>0.885677259502036</v>
       </c>
       <c r="H98">
-        <v>0.154774781086525</v>
+        <v>0.154774781086524</v>
       </c>
       <c r="I98">
-        <v>0.872048722915559</v>
+        <v>0.872048722915558</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -9217,7 +9217,7 @@
         <v>0.143996524619196</v>
       </c>
       <c r="I99">
-        <v>0.829152020621883</v>
+        <v>0.829152020621882</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -9237,10 +9237,10 @@
         <v>2.70849360075662</v>
       </c>
       <c r="F100">
-        <v>0.79785562862088</v>
+        <v>0.797855628620879</v>
       </c>
       <c r="G100">
-        <v>0.800541579145499</v>
+        <v>0.800541579145498</v>
       </c>
       <c r="H100">
         <v>0.134098736418817</v>
@@ -9266,7 +9266,7 @@
         <v>2.60552384356843</v>
       </c>
       <c r="F101">
-        <v>0.759896738657562</v>
+        <v>0.759896738657561</v>
       </c>
       <c r="G101">
         <v>0.76235269848261</v>
@@ -9295,7 +9295,7 @@
         <v>2.50782069149126</v>
       </c>
       <c r="F102">
-        <v>0.724513499224415</v>
+        <v>0.724513499224416</v>
       </c>
       <c r="G102">
         <v>0.726759123625781</v>
@@ -9354,28 +9354,28 @@
         <v>-50</v>
       </c>
       <c r="B2">
-        <v>-0.00783429879197921</v>
+        <v>-0.00783429879201668</v>
       </c>
       <c r="C2">
         <v>-0.0143824566488312</v>
       </c>
       <c r="D2">
-        <v>-0.0188288559262568</v>
+        <v>-0.0188288559262758</v>
       </c>
       <c r="E2">
         <v>0.015208109439238</v>
       </c>
       <c r="F2">
-        <v>0.001057162968541</v>
+        <v>0.00105716296857555</v>
       </c>
       <c r="G2">
-        <v>-0.0149364078668306</v>
+        <v>-0.0149364078667846</v>
       </c>
       <c r="H2">
-        <v>-0.364449476713143</v>
+        <v>-0.364449476713056</v>
       </c>
       <c r="I2">
-        <v>0.040768518687927</v>
+        <v>0.0407685186879619</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9386,25 +9386,25 @@
         <v>-0.0134922345311669</v>
       </c>
       <c r="C3">
-        <v>-0.010587132097141</v>
+        <v>-0.0105871320971276</v>
       </c>
       <c r="D3">
         <v>-0.0123005347513158</v>
       </c>
       <c r="E3">
-        <v>-0.00501052804587312</v>
+        <v>-0.00501052804581421</v>
       </c>
       <c r="F3">
-        <v>-0.035777412168364</v>
+        <v>-0.0357774121683419</v>
       </c>
       <c r="G3">
-        <v>-0.0429329930916727</v>
+        <v>-0.0429329930916507</v>
       </c>
       <c r="H3">
-        <v>-0.277692986172084</v>
+        <v>-0.277692986172125</v>
       </c>
       <c r="I3">
-        <v>-0.0476927272518572</v>
+        <v>-0.0476927272518238</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9424,16 +9424,16 @@
         <v>0.0212392251575608</v>
       </c>
       <c r="F4">
-        <v>-0.0431358372713229</v>
+        <v>-0.0431358372713018</v>
       </c>
       <c r="G4">
-        <v>-0.0417282685452179</v>
+        <v>-0.0417282685451756</v>
       </c>
       <c r="H4">
-        <v>0.0971944452104956</v>
+        <v>0.0971944452105542</v>
       </c>
       <c r="I4">
-        <v>-0.00943856184692768</v>
+        <v>-0.00943856184690635</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9441,28 +9441,28 @@
         <v>-47</v>
       </c>
       <c r="B5">
-        <v>0.0147260136601607</v>
+        <v>0.0147260136601943</v>
       </c>
       <c r="C5">
-        <v>0.00873003683512725</v>
+        <v>0.00873003683515223</v>
       </c>
       <c r="D5">
         <v>-0.0119205803213857</v>
       </c>
       <c r="E5">
-        <v>0.0134920217776261</v>
+        <v>0.0134920217776629</v>
       </c>
       <c r="F5">
-        <v>-0.0134639254293273</v>
+        <v>-0.0134639254292868</v>
       </c>
       <c r="G5">
-        <v>-0.00326380225158557</v>
+        <v>-0.00326380225156533</v>
       </c>
       <c r="H5">
-        <v>0.0608270124425505</v>
+        <v>0.0608270124426245</v>
       </c>
       <c r="I5">
-        <v>-0.0324280544593202</v>
+        <v>-0.0324280544592998</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9470,28 +9470,28 @@
         <v>-46</v>
       </c>
       <c r="B6">
-        <v>-0.00836786492016904</v>
+        <v>-0.00836786492018526</v>
       </c>
       <c r="C6">
-        <v>0.0133251013423541</v>
+        <v>0.01332510134233</v>
       </c>
       <c r="D6">
         <v>0.00234259010290597</v>
       </c>
       <c r="E6">
-        <v>-0.0179686423917545</v>
+        <v>-0.0179686423918079</v>
       </c>
       <c r="F6">
-        <v>-0.0280715093811196</v>
+        <v>-0.0280715093812167</v>
       </c>
       <c r="G6">
-        <v>-0.00814396295558043</v>
+        <v>-0.00814396295565794</v>
       </c>
       <c r="H6">
-        <v>-0.312037891900118</v>
+        <v>-0.312037891900048</v>
       </c>
       <c r="I6">
-        <v>-0.00958233600419413</v>
+        <v>-0.0095823360042724</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9499,16 +9499,16 @@
         <v>-45</v>
       </c>
       <c r="B7">
-        <v>0.00742076837422458</v>
+        <v>0.00742076837425585</v>
       </c>
       <c r="C7">
-        <v>0.000468997688509381</v>
+        <v>0.000468997688521012</v>
       </c>
       <c r="D7">
         <v>-0.00967800801764896</v>
       </c>
       <c r="E7">
-        <v>0.0142951551498649</v>
+        <v>0.0142951551498993</v>
       </c>
       <c r="F7">
         <v>0.0146431718566605</v>
@@ -9517,7 +9517,7 @@
         <v>-0.0397828809670262</v>
       </c>
       <c r="H7">
-        <v>0.238795348020478</v>
+        <v>0.238795348020494</v>
       </c>
       <c r="I7">
         <v>-0.0197671772734857</v>
@@ -9528,28 +9528,28 @@
         <v>-44</v>
       </c>
       <c r="B8">
-        <v>2.6672215900981e-05</v>
+        <v>2.66722159310989e-05</v>
       </c>
       <c r="C8">
-        <v>0.00625120330533074</v>
+        <v>0.00625120330534195</v>
       </c>
       <c r="D8">
         <v>-0.0012288578911325</v>
       </c>
       <c r="E8">
-        <v>-0.000601566662692158</v>
+        <v>-0.000601566662675487</v>
       </c>
       <c r="F8">
-        <v>0.0364613866960055</v>
+        <v>0.0364613866960765</v>
       </c>
       <c r="G8">
-        <v>-0.00382992551272276</v>
+        <v>-0.00382992551265181</v>
       </c>
       <c r="H8">
-        <v>-0.117211918912201</v>
+        <v>-0.11721191891217</v>
       </c>
       <c r="I8">
-        <v>0.0327907944942265</v>
+        <v>0.0327907944942981</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9557,28 +9557,28 @@
         <v>-43</v>
       </c>
       <c r="B9">
-        <v>0.0148078542781278</v>
+        <v>0.0148078542780698</v>
       </c>
       <c r="C9">
-        <v>-0.010912013786236</v>
+        <v>-0.0109120137862792</v>
       </c>
       <c r="D9">
-        <v>0.00198993824453346</v>
+        <v>0.00198993824447515</v>
       </c>
       <c r="E9">
         <v>-0.0134291132866791</v>
       </c>
       <c r="F9">
-        <v>-0.0245177892080739</v>
+        <v>-0.0245177892080229</v>
       </c>
       <c r="G9">
-        <v>0.0252548508412476</v>
+        <v>0.0252548508412985</v>
       </c>
       <c r="H9">
-        <v>-0.159668028268487</v>
+        <v>-0.159668028268517</v>
       </c>
       <c r="I9">
-        <v>-0.00377477116802313</v>
+        <v>-0.00377477116797172</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9598,16 +9598,16 @@
         <v>-0.0153733820914639</v>
       </c>
       <c r="F10">
-        <v>-0.00269978624772086</v>
+        <v>-0.0026997862476397</v>
       </c>
       <c r="G10">
-        <v>-0.0147329443954854</v>
+        <v>-0.0147329443954043</v>
       </c>
       <c r="H10">
-        <v>0.0726258573481954</v>
+        <v>0.0726258573482517</v>
       </c>
       <c r="I10">
-        <v>-0.0341266342310609</v>
+        <v>-0.034126634230979</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9618,25 +9618,25 @@
         <v>-0.00993167227071281</v>
       </c>
       <c r="C11">
-        <v>-0.00112912854671093</v>
+        <v>-0.00112912854675106</v>
       </c>
       <c r="D11">
         <v>-0.000894534310961177</v>
       </c>
       <c r="E11">
-        <v>0.00215808149883406</v>
+        <v>0.00215808149875884</v>
       </c>
       <c r="F11">
-        <v>0.0309899360800977</v>
+        <v>0.0309899360801287</v>
       </c>
       <c r="G11">
-        <v>0.0343090360264808</v>
+        <v>0.0343090360265118</v>
       </c>
       <c r="H11">
-        <v>0.0630435383983987</v>
+        <v>0.063043538398452</v>
       </c>
       <c r="I11">
-        <v>0.0212837458687064</v>
+        <v>0.0212837458687377</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9656,16 +9656,16 @@
         <v>0.0149093813517416</v>
       </c>
       <c r="F12">
-        <v>0.017148802878524</v>
+        <v>0.0171488028785537</v>
       </c>
       <c r="G12">
-        <v>-0.0303068087050052</v>
+        <v>-0.0303068087049756</v>
       </c>
       <c r="H12">
-        <v>-0.14608971318799</v>
+        <v>-0.146089713187965</v>
       </c>
       <c r="I12">
-        <v>0.0254437462824295</v>
+        <v>0.0254437462824594</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9673,13 +9673,13 @@
         <v>-39</v>
       </c>
       <c r="B13">
-        <v>-0.00994978989661332</v>
+        <v>-0.00994978989657615</v>
       </c>
       <c r="C13">
-        <v>0.00999499584028095</v>
+        <v>0.00999499584029953</v>
       </c>
       <c r="D13">
-        <v>-0.0104913396655797</v>
+        <v>-0.0104913396655425</v>
       </c>
       <c r="E13">
         <v>0.00313582296666793</v>
@@ -9688,13 +9688,13 @@
         <v>-0.030409869920564</v>
       </c>
       <c r="G13">
-        <v>0.00548817866657214</v>
+        <v>0.00548817866654387</v>
       </c>
       <c r="H13">
-        <v>-0.0869535062641721</v>
+        <v>-0.0869535062641841</v>
       </c>
       <c r="I13">
-        <v>-0.00692839227134153</v>
+        <v>-0.00692839227135582</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9702,28 +9702,28 @@
         <v>-38</v>
       </c>
       <c r="B14">
-        <v>-0.0112381272617038</v>
+        <v>-0.0112381272617157</v>
       </c>
       <c r="C14">
-        <v>0.00466651041207849</v>
+        <v>0.00466651041209636</v>
       </c>
       <c r="D14">
-        <v>0.00182453749952141</v>
+        <v>0.0018245374995095</v>
       </c>
       <c r="E14">
-        <v>0.0123353383086224</v>
+        <v>0.0123353383086629</v>
       </c>
       <c r="F14">
-        <v>0.0213353073615528</v>
+        <v>0.0213353073615933</v>
       </c>
       <c r="G14">
-        <v>0.0142213972337715</v>
+        <v>0.014221397233812</v>
       </c>
       <c r="H14">
-        <v>0.204544010305102</v>
+        <v>0.204544010305147</v>
       </c>
       <c r="I14">
-        <v>-0.00216223534669274</v>
+        <v>-0.00216223534665179</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9731,28 +9731,28 @@
         <v>-37</v>
       </c>
       <c r="B15">
-        <v>0.00829808420143585</v>
+        <v>0.00829808420140159</v>
       </c>
       <c r="C15">
         <v>-0.0085296078690828</v>
       </c>
       <c r="D15">
-        <v>-0.00445098602548893</v>
+        <v>-0.00445098602551178</v>
       </c>
       <c r="E15">
-        <v>-0.00460721707539505</v>
+        <v>-0.0046072170753429</v>
       </c>
       <c r="F15">
-        <v>-0.00899314986545005</v>
+        <v>-0.00899314986538549</v>
       </c>
       <c r="G15">
-        <v>0.00557100868620716</v>
+        <v>0.00557100868627159</v>
       </c>
       <c r="H15">
-        <v>-0.0795755363559209</v>
+        <v>-0.0795755363558778</v>
       </c>
       <c r="I15">
-        <v>-0.0174721952321223</v>
+        <v>-0.0174721952320571</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9760,28 +9760,28 @@
         <v>-36</v>
       </c>
       <c r="B16">
-        <v>0.00617037206548067</v>
+        <v>0.0061703720655245</v>
       </c>
       <c r="C16">
-        <v>-0.00200824918550679</v>
+        <v>-0.00200824918549027</v>
       </c>
       <c r="D16">
-        <v>0.000184856638786813</v>
+        <v>0.000184856638830652</v>
       </c>
       <c r="E16">
-        <v>-0.00135308856030949</v>
+        <v>-0.00135308856032205</v>
       </c>
       <c r="F16">
-        <v>0.00492856717977</v>
+        <v>0.00492856717975767</v>
       </c>
       <c r="G16">
-        <v>-0.0130361146726814</v>
+        <v>-0.0130361146726937</v>
       </c>
       <c r="H16">
-        <v>-0.112254063032546</v>
+        <v>-0.112254063032505</v>
       </c>
       <c r="I16">
-        <v>0.0110195885367923</v>
+        <v>0.0110195885367798</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9801,16 +9801,16 @@
         <v>0.00959585809055437</v>
       </c>
       <c r="F17">
-        <v>0.00697075481079971</v>
+        <v>0.00697075481075262</v>
       </c>
       <c r="G17">
-        <v>0.0166089300946909</v>
+        <v>0.0166089300946439</v>
       </c>
       <c r="H17">
         <v>0.0757466911395867</v>
       </c>
       <c r="I17">
-        <v>-0.0256913015281627</v>
+        <v>-0.0256913015282103</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9833,13 +9833,13 @@
         <v>0.00143369246718026</v>
       </c>
       <c r="G18">
-        <v>-0.0103493049182998</v>
+        <v>-0.010349304918311</v>
       </c>
       <c r="H18">
-        <v>0.127343858193321</v>
+        <v>0.127343858193339</v>
       </c>
       <c r="I18">
-        <v>-0.0142664539171535</v>
+        <v>-0.0142664539171649</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9847,28 +9847,28 @@
         <v>-33</v>
       </c>
       <c r="B19">
-        <v>-0.00322867194570596</v>
+        <v>-0.00322867194566732</v>
       </c>
       <c r="C19">
-        <v>0.000740805125241876</v>
+        <v>0.000740805125285772</v>
       </c>
       <c r="D19">
-        <v>-0.00420172606436291</v>
+        <v>-0.00420172606434357</v>
       </c>
       <c r="E19">
-        <v>-0.00046386279730025</v>
+        <v>-0.00046386279721076</v>
       </c>
       <c r="F19">
-        <v>-0.0111474878150681</v>
+        <v>-0.0111474878150037</v>
       </c>
       <c r="G19">
-        <v>0.0112692845183839</v>
+        <v>0.0112692845184482</v>
       </c>
       <c r="H19">
-        <v>0.0730173068524726</v>
+        <v>0.0730173068525076</v>
       </c>
       <c r="I19">
-        <v>-0.00880438789124205</v>
+        <v>-0.00880438789117702</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -9876,28 +9876,28 @@
         <v>-32</v>
       </c>
       <c r="B20">
-        <v>0.00260614254564935</v>
+        <v>0.00260614254568638</v>
       </c>
       <c r="C20">
-        <v>0.00601165185949083</v>
+        <v>0.00601165185951892</v>
       </c>
       <c r="D20">
-        <v>-0.00439926726417328</v>
+        <v>-0.00439926726413616</v>
       </c>
       <c r="E20">
         <v>-0.000975821565015949</v>
       </c>
       <c r="F20">
-        <v>0.0157351865169831</v>
+        <v>0.0157351865170447</v>
       </c>
       <c r="G20">
-        <v>-0.0172316786093066</v>
+        <v>-0.0172316786092657</v>
       </c>
       <c r="H20">
-        <v>-0.055646516420671</v>
+        <v>-0.0556465164206544</v>
       </c>
       <c r="I20">
-        <v>-0.00912824670071757</v>
+        <v>-0.00912824670067616</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -9905,28 +9905,28 @@
         <v>-31</v>
       </c>
       <c r="B21">
-        <v>0.00532971594373959</v>
+        <v>0.0053297159437928</v>
       </c>
       <c r="C21">
-        <v>-0.00724812107545791</v>
+        <v>-0.00724812107541747</v>
       </c>
       <c r="D21">
-        <v>0.000784706111307938</v>
+        <v>0.000784706111361378</v>
       </c>
       <c r="E21">
-        <v>-0.00594926892960118</v>
+        <v>-0.00594926892958056</v>
       </c>
       <c r="F21">
-        <v>-0.0138466696988002</v>
+        <v>-0.013846669698761</v>
       </c>
       <c r="G21">
-        <v>-0.00276747219411891</v>
+        <v>-0.00276747219407982</v>
       </c>
       <c r="H21">
-        <v>0.0602405513800701</v>
+        <v>0.0602405513801333</v>
       </c>
       <c r="I21">
-        <v>-0.0166337219707679</v>
+        <v>-0.0166337219707283</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -9937,13 +9937,13 @@
         <v>0.0088445498748792</v>
       </c>
       <c r="C22">
-        <v>-0.00489766698726242</v>
+        <v>-0.00489766698724948</v>
       </c>
       <c r="D22">
         <v>-0.0039993410162986</v>
       </c>
       <c r="E22">
-        <v>-0.0109452196898356</v>
+        <v>-0.0109452196898158</v>
       </c>
       <c r="F22">
         <v>-0.0124314118798283</v>
@@ -9952,7 +9952,7 @@
         <v>0.00420280451748097</v>
       </c>
       <c r="H22">
-        <v>-0.124846435150899</v>
+        <v>-0.124846435150884</v>
       </c>
       <c r="I22">
         <v>0.00853446329867842</v>
@@ -9963,13 +9963,13 @@
         <v>-29</v>
       </c>
       <c r="B23">
-        <v>-0.00267618948227488</v>
+        <v>-0.00267618948233998</v>
       </c>
       <c r="C23">
-        <v>-0.00148049756659742</v>
+        <v>-0.00148049756663466</v>
       </c>
       <c r="D23">
-        <v>0.000630518043129513</v>
+        <v>0.000630518043063748</v>
       </c>
       <c r="E23">
         <v>-0.0098284751239058</v>
@@ -9981,7 +9981,7 @@
         <v>0.000643729822037406</v>
       </c>
       <c r="H23">
-        <v>-0.0115002386266819</v>
+        <v>-0.0115002386266961</v>
       </c>
       <c r="I23">
         <v>0.0162923399021607</v>
@@ -9992,28 +9992,28 @@
         <v>-28</v>
       </c>
       <c r="B24">
-        <v>0.00810435503285036</v>
+        <v>0.00810435503281919</v>
       </c>
       <c r="C24">
-        <v>0.0023530004373573</v>
+        <v>0.00235300043734539</v>
       </c>
       <c r="D24">
-        <v>0.00834350134762046</v>
+        <v>0.00834350134758883</v>
       </c>
       <c r="E24">
         <v>0.00424029087160668</v>
       </c>
       <c r="F24">
-        <v>0.00670478250898397</v>
+        <v>0.0067047825090183</v>
       </c>
       <c r="G24">
-        <v>-0.0169309772463457</v>
+        <v>-0.0169309772463115</v>
       </c>
       <c r="H24">
-        <v>-0.0793179059666581</v>
+        <v>-0.0793179059666174</v>
       </c>
       <c r="I24">
-        <v>0.00246501695699457</v>
+        <v>0.00246501695702918</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -10024,25 +10024,25 @@
         <v>0.00296755925637064</v>
       </c>
       <c r="C25">
-        <v>0.00401384300882577</v>
+        <v>0.00401384300880291</v>
       </c>
       <c r="D25">
         <v>0.0085327476312582</v>
       </c>
       <c r="E25">
-        <v>-0.00136440764840377</v>
+        <v>-0.00136440764843837</v>
       </c>
       <c r="F25">
-        <v>0.00998010933813915</v>
+        <v>0.0099801093382049</v>
       </c>
       <c r="G25">
-        <v>-0.0152053545642833</v>
+        <v>-0.0152053545642342</v>
       </c>
       <c r="H25">
-        <v>-0.00659071443038317</v>
+        <v>-0.00659071443034462</v>
       </c>
       <c r="I25">
-        <v>-0.000108134957366723</v>
+        <v>-0.000108134957300441</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -10050,28 +10050,28 @@
         <v>-26</v>
       </c>
       <c r="B26">
-        <v>-0.00424606909263674</v>
+        <v>-0.00424606909266534</v>
       </c>
       <c r="C26">
-        <v>-0.00103931766991414</v>
+        <v>-0.00103931766997998</v>
       </c>
       <c r="D26">
-        <v>0.00349001318064648</v>
+        <v>0.0034900131806171</v>
       </c>
       <c r="E26">
-        <v>0.00168205780466057</v>
+        <v>0.00168205780454506</v>
       </c>
       <c r="F26">
-        <v>0.0121868236992248</v>
+        <v>0.0121868236992721</v>
       </c>
       <c r="G26">
-        <v>-0.00191942070549044</v>
+        <v>-0.00191942070544343</v>
       </c>
       <c r="H26">
-        <v>0.0390621531399276</v>
+        <v>0.0390621531399519</v>
       </c>
       <c r="I26">
-        <v>-0.000382540945858748</v>
+        <v>-0.000382540945826993</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -10079,16 +10079,16 @@
         <v>-25</v>
       </c>
       <c r="B27">
-        <v>-0.00483064720378783</v>
+        <v>-0.00483064720377412</v>
       </c>
       <c r="C27">
-        <v>0.00441775696860212</v>
+        <v>0.00441775696864426</v>
       </c>
       <c r="D27">
         <v>0.00636237663143883</v>
       </c>
       <c r="E27">
-        <v>-0.000966078098897705</v>
+        <v>-0.000966078098834801</v>
       </c>
       <c r="F27">
         <v>0.0062145571457018</v>
@@ -10097,7 +10097,7 @@
         <v>0.0166807434188592</v>
       </c>
       <c r="H27">
-        <v>-0.066612092623938</v>
+        <v>-0.0666120926239035</v>
       </c>
       <c r="I27">
         <v>-0.00596886921912751</v>
@@ -10108,28 +10108,28 @@
         <v>-24</v>
       </c>
       <c r="B28">
-        <v>0.00512354046527558</v>
+        <v>0.0051235404652493</v>
       </c>
       <c r="C28">
-        <v>-0.00227808318890032</v>
+        <v>-0.00227808318892056</v>
       </c>
       <c r="D28">
-        <v>-0.00638463236366607</v>
+        <v>-0.00638463236369355</v>
       </c>
       <c r="E28">
         <v>0.00815145077319243</v>
       </c>
       <c r="F28">
-        <v>-0.0119621416075903</v>
+        <v>-0.0119621416075613</v>
       </c>
       <c r="G28">
-        <v>0.00390679186522149</v>
+        <v>0.00390679186525031</v>
       </c>
       <c r="H28">
-        <v>-0.0231568294925244</v>
+        <v>-0.0231568294925027</v>
       </c>
       <c r="I28">
-        <v>0.0104071034187446</v>
+        <v>0.0104071034187738</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -10137,7 +10137,7 @@
         <v>-23</v>
       </c>
       <c r="B29">
-        <v>-0.00330971781878333</v>
+        <v>-0.00330971781875811</v>
       </c>
       <c r="C29">
         <v>0.000138418402130915</v>
@@ -10149,16 +10149,16 @@
         <v>0.00409040670127353</v>
       </c>
       <c r="F29">
-        <v>-0.0121297099391933</v>
+        <v>-0.0121297099391654</v>
       </c>
       <c r="G29">
-        <v>-0.00693656803644502</v>
+        <v>-0.00693656803638969</v>
       </c>
       <c r="H29">
-        <v>0.0330868549030374</v>
+        <v>0.0330868549030782</v>
       </c>
       <c r="I29">
-        <v>0.0103013176922033</v>
+        <v>0.0103013176922454</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -10166,28 +10166,28 @@
         <v>-22</v>
       </c>
       <c r="B30">
-        <v>-0.00387169989655711</v>
+        <v>-0.00387169989649658</v>
       </c>
       <c r="C30">
-        <v>0.00506905586918704</v>
+        <v>0.00506905586924319</v>
       </c>
       <c r="D30">
-        <v>0.00448202379219174</v>
+        <v>0.00448202379224357</v>
       </c>
       <c r="E30">
-        <v>0.00253703091420698</v>
+        <v>0.00253703091426109</v>
       </c>
       <c r="F30">
-        <v>0.0028176267072089</v>
+        <v>0.00281762670728932</v>
       </c>
       <c r="G30">
-        <v>-0.0148768714805182</v>
+        <v>-0.0148768714804385</v>
       </c>
       <c r="H30">
-        <v>-0.0188480428307767</v>
+        <v>-0.0188480428307001</v>
       </c>
       <c r="I30">
-        <v>-0.00559532365264836</v>
+        <v>-0.00559532365256741</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -10195,28 +10195,28 @@
         <v>-21</v>
       </c>
       <c r="B31">
-        <v>-0.00492406111823407</v>
+        <v>-0.00492406111815264</v>
       </c>
       <c r="C31">
-        <v>0.00305390935514965</v>
+        <v>0.00305390935520371</v>
       </c>
       <c r="D31">
-        <v>-0.00619844245979081</v>
+        <v>-0.00619844245974027</v>
       </c>
       <c r="E31">
-        <v>0.00367506243655077</v>
+        <v>0.00367506243660218</v>
       </c>
       <c r="F31">
-        <v>0.00705888267373245</v>
+        <v>0.00705888267375824</v>
       </c>
       <c r="G31">
-        <v>0.0130376815439575</v>
+        <v>0.013037681543983</v>
       </c>
       <c r="H31">
-        <v>0.0286792916306383</v>
+        <v>0.028679291630692</v>
       </c>
       <c r="I31">
-        <v>-0.00334286402564018</v>
+        <v>-0.00334286402561422</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -10224,28 +10224,28 @@
         <v>-20</v>
       </c>
       <c r="B32">
-        <v>-0.00565754376292552</v>
+        <v>-0.00565754376291433</v>
       </c>
       <c r="C32">
-        <v>0.00164180647179587</v>
+        <v>0.00164180647177851</v>
       </c>
       <c r="D32">
         <v>-0.00393959697828714</v>
       </c>
       <c r="E32">
-        <v>0.00621381876813238</v>
+        <v>0.00621381876809574</v>
       </c>
       <c r="F32">
-        <v>0.0112595396124015</v>
+        <v>0.0112595396124387</v>
       </c>
       <c r="G32">
-        <v>-0.00206197955609512</v>
+        <v>-0.00206197955605828</v>
       </c>
       <c r="H32">
-        <v>-0.00480583248137746</v>
+        <v>-0.00480583248134392</v>
       </c>
       <c r="I32">
-        <v>-0.00518353198834112</v>
+        <v>-0.00518353198830364</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -10253,28 +10253,28 @@
         <v>-19</v>
       </c>
       <c r="B33">
-        <v>0.00255343449862728</v>
+        <v>0.00255343449864884</v>
       </c>
       <c r="C33">
-        <v>0.00344481830453882</v>
+        <v>0.00344481830455558</v>
       </c>
       <c r="D33">
         <v>0.00387148108221091</v>
       </c>
       <c r="E33">
-        <v>0.00500124556137399</v>
+        <v>0.00500124556139721</v>
       </c>
       <c r="F33">
-        <v>0.00312115209582111</v>
+        <v>0.00312115209578523</v>
       </c>
       <c r="G33">
-        <v>0.00964889692258555</v>
+        <v>0.00964889692255011</v>
       </c>
       <c r="H33">
         <v>-0.0181654283031833</v>
       </c>
       <c r="I33">
-        <v>0.00266735278810326</v>
+        <v>0.00266735278806717</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -10282,28 +10282,28 @@
         <v>-18</v>
       </c>
       <c r="B34">
-        <v>-0.000717574779413946</v>
+        <v>-0.000717574779372335</v>
       </c>
       <c r="C34">
-        <v>-0.00209664414582087</v>
+        <v>-0.00209664414580467</v>
       </c>
       <c r="D34">
-        <v>-0.00222101984439903</v>
+        <v>-0.00222101984441093</v>
       </c>
       <c r="E34">
-        <v>0.00247901384001526</v>
+        <v>0.00247901384005948</v>
       </c>
       <c r="F34">
-        <v>0.00399782338705305</v>
+        <v>0.00399782338708762</v>
       </c>
       <c r="G34">
-        <v>0.00872680606250597</v>
+        <v>0.00872680606254009</v>
       </c>
       <c r="H34">
-        <v>0.0146617982479076</v>
+        <v>0.014661798247937</v>
       </c>
       <c r="I34">
-        <v>0.0116567633531907</v>
+        <v>0.0116567633532255</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -10311,13 +10311,13 @@
         <v>-17</v>
       </c>
       <c r="B35">
-        <v>-0.00335486996622203</v>
+        <v>-0.0033548699661818</v>
       </c>
       <c r="C35">
-        <v>-0.00101303415462387</v>
+        <v>-0.0010130341545925</v>
       </c>
       <c r="D35">
-        <v>0.00435188300945408</v>
+        <v>0.00435188300953616</v>
       </c>
       <c r="E35">
         <v>-0.00566462005880443</v>
@@ -10329,10 +10329,10 @@
         <v>-0.0118189496776772</v>
       </c>
       <c r="H35">
-        <v>0.0604370044037956</v>
+        <v>0.0604370044038094</v>
       </c>
       <c r="I35">
-        <v>-0.00589895077223688</v>
+        <v>-0.00589895077224805</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -10340,28 +10340,28 @@
         <v>-16</v>
       </c>
       <c r="B36">
-        <v>0.00205476175996833</v>
+        <v>0.0020547617599878</v>
       </c>
       <c r="C36">
-        <v>-0.000879035302272788</v>
+        <v>-0.000879035302242362</v>
       </c>
       <c r="D36">
-        <v>0.00518425156772172</v>
+        <v>0.00518425156775645</v>
       </c>
       <c r="E36">
-        <v>-0.00552643601119899</v>
+        <v>-0.00552643601117881</v>
       </c>
       <c r="F36">
-        <v>-0.000122614519096268</v>
+        <v>-0.000122614519032108</v>
       </c>
       <c r="G36">
-        <v>-0.0104176937911966</v>
+        <v>-0.0104176937911334</v>
       </c>
       <c r="H36">
-        <v>0.0443043653448258</v>
+        <v>0.0443043653448517</v>
       </c>
       <c r="I36">
-        <v>0.00177952740496942</v>
+        <v>0.00177952740503397</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -10369,28 +10369,28 @@
         <v>-15</v>
       </c>
       <c r="B37">
-        <v>-0.00164728550899886</v>
+        <v>-0.0016472855090745</v>
       </c>
       <c r="C37">
-        <v>-0.00189326738627049</v>
+        <v>-0.00189326738632963</v>
       </c>
       <c r="D37">
-        <v>0.00558172248847303</v>
+        <v>0.00558172248842726</v>
       </c>
       <c r="E37">
-        <v>0.00118037307199728</v>
+        <v>0.00118037307193916</v>
       </c>
       <c r="F37">
-        <v>-0.00509690375925041</v>
+        <v>-0.00509690375922982</v>
       </c>
       <c r="G37">
-        <v>-0.000105176485627363</v>
+        <v>-0.000105176485607085</v>
       </c>
       <c r="H37">
-        <v>-0.0226491865763715</v>
+        <v>-0.0226491865763469</v>
       </c>
       <c r="I37">
-        <v>0.00851901911413968</v>
+        <v>0.0085190191141604</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -10398,7 +10398,7 @@
         <v>-14</v>
       </c>
       <c r="B38">
-        <v>0.000209911091450667</v>
+        <v>0.000209911091432265</v>
       </c>
       <c r="C38">
         <v>0.00315463849247804</v>
@@ -10410,7 +10410,7 @@
         <v>0.00478699634617624</v>
       </c>
       <c r="F38">
-        <v>0.00931648769539001</v>
+        <v>0.00931648769540983</v>
       </c>
       <c r="G38">
         <v>0.00168366630616846</v>
@@ -10419,7 +10419,7 @@
         <v>0.0515910282073425</v>
       </c>
       <c r="I38">
-        <v>0.00936820830980483</v>
+        <v>0.00936820830982477</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -10433,22 +10433,22 @@
         <v>-0.00231107122985558</v>
       </c>
       <c r="D39">
-        <v>0.00476139798259193</v>
+        <v>0.00476139798255836</v>
       </c>
       <c r="E39">
         <v>-0.00467851103963215</v>
       </c>
       <c r="F39">
-        <v>0.00111008578825478</v>
+        <v>0.001110085788312</v>
       </c>
       <c r="G39">
-        <v>-0.00824500302056035</v>
+        <v>-0.008245003020504</v>
       </c>
       <c r="H39">
-        <v>0.00964998601973021</v>
+        <v>0.00964998601976429</v>
       </c>
       <c r="I39">
-        <v>-0.00954992827560092</v>
+        <v>-0.00954992827554333</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -10459,25 +10459,25 @@
         <v>-0.00321667133767333</v>
       </c>
       <c r="C40">
-        <v>-0.000155630002705373</v>
+        <v>-0.000155630002732915</v>
       </c>
       <c r="D40">
-        <v>0.00540642042193698</v>
+        <v>0.00540642042187069</v>
       </c>
       <c r="E40">
-        <v>-0.000241516105410177</v>
+        <v>-0.000241516105427786</v>
       </c>
       <c r="F40">
-        <v>0.00166354241773689</v>
+        <v>0.00166354241779195</v>
       </c>
       <c r="G40">
-        <v>-0.00394064359632217</v>
+        <v>-0.00394064359624984</v>
       </c>
       <c r="H40">
-        <v>0.0369806762465078</v>
+        <v>0.03698067624653</v>
       </c>
       <c r="I40">
-        <v>0.00915125791356895</v>
+        <v>0.00915125791364282</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -10485,28 +10485,28 @@
         <v>-11</v>
       </c>
       <c r="B41">
-        <v>-0.00179692536366808</v>
+        <v>-0.00179692536368532</v>
       </c>
       <c r="C41">
-        <v>-0.000194089661854959</v>
+        <v>-0.000194089661868477</v>
       </c>
       <c r="D41">
         <v>-0.0049294540001151</v>
       </c>
       <c r="E41">
-        <v>-0.00111369904284884</v>
+        <v>-0.00111369904286608</v>
       </c>
       <c r="F41">
-        <v>0.00120342807343769</v>
+        <v>0.00120342807347301</v>
       </c>
       <c r="G41">
-        <v>0.00361911374455108</v>
+        <v>0.00361911374458591</v>
       </c>
       <c r="H41">
-        <v>0.0403025122060352</v>
+        <v>0.0403025122060134</v>
       </c>
       <c r="I41">
-        <v>-0.00283257139976732</v>
+        <v>-0.00283257139973177</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -10532,7 +10532,7 @@
         <v>-0.0083648538529049</v>
       </c>
       <c r="H42">
-        <v>-0.0106289058543246</v>
+        <v>-0.010628905854281</v>
       </c>
       <c r="I42">
         <v>-0.00624134755316726</v>
@@ -10546,22 +10546,22 @@
         <v>-0.00465821135778412</v>
       </c>
       <c r="C43">
-        <v>0.00185211618474558</v>
+        <v>0.00185211618473245</v>
       </c>
       <c r="D43">
-        <v>-0.00479312964140289</v>
+        <v>-0.0047931296414239</v>
       </c>
       <c r="E43">
-        <v>0.00277440052071236</v>
+        <v>0.00277440052069553</v>
       </c>
       <c r="F43">
-        <v>-0.00781781989970994</v>
+        <v>-0.00781781989969353</v>
       </c>
       <c r="G43">
         <v>0.00219375027960196</v>
       </c>
       <c r="H43">
-        <v>0.0296648536760868</v>
+        <v>0.0296648536761088</v>
       </c>
       <c r="I43">
         <v>-0.00215189716263719</v>
@@ -10572,28 +10572,28 @@
         <v>-8</v>
       </c>
       <c r="B44">
-        <v>0.00289773061672186</v>
+        <v>0.00289773061670527</v>
       </c>
       <c r="C44">
-        <v>-0.00173767927540623</v>
+        <v>-0.00173767927543222</v>
       </c>
       <c r="D44">
-        <v>-0.0035348828251243</v>
+        <v>-0.00353488282514488</v>
       </c>
       <c r="E44">
-        <v>-0.0036387353169754</v>
+        <v>-0.00363873531700893</v>
       </c>
       <c r="F44">
-        <v>0.00571396936926285</v>
+        <v>0.0057139693693104</v>
       </c>
       <c r="G44">
-        <v>-0.00641764595241911</v>
+        <v>-0.00641764595237204</v>
       </c>
       <c r="H44">
-        <v>0.00622804281613048</v>
+        <v>0.00622804281614178</v>
       </c>
       <c r="I44">
-        <v>-0.00336199320648246</v>
+        <v>-0.00336199320643467</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -10601,28 +10601,28 @@
         <v>-7</v>
       </c>
       <c r="B45">
-        <v>-0.00411854780171528</v>
+        <v>-0.00411854780174822</v>
       </c>
       <c r="C45">
-        <v>-0.00164589000851261</v>
+        <v>-0.0016458900085255</v>
       </c>
       <c r="D45">
         <v>-0.00312380679238711</v>
       </c>
       <c r="E45">
-        <v>-0.00437629261013638</v>
+        <v>-0.00437629261016995</v>
       </c>
       <c r="F45">
-        <v>-0.000615815333178209</v>
+        <v>-0.000615815333147508</v>
       </c>
       <c r="G45">
-        <v>-0.00494467720301673</v>
+        <v>-0.0049446772029863</v>
       </c>
       <c r="H45">
         <v>-0.0408747899400468</v>
       </c>
       <c r="I45">
-        <v>0.00806231422579378</v>
+        <v>0.00806231422582461</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -10630,28 +10630,28 @@
         <v>-6</v>
       </c>
       <c r="B46">
-        <v>0.00395837669128212</v>
+        <v>0.00395837669129851</v>
       </c>
       <c r="C46">
-        <v>-0.00268752059029805</v>
+        <v>-0.00268752059027241</v>
       </c>
       <c r="D46">
-        <v>-0.00188397396085236</v>
+        <v>-0.00188397396083266</v>
       </c>
       <c r="E46">
-        <v>4.43196317300683e-05</v>
+        <v>4.43196317807152e-05</v>
       </c>
       <c r="F46">
-        <v>-0.00173585831017272</v>
+        <v>-0.00173585831009818</v>
       </c>
       <c r="G46">
-        <v>0.00165660878728176</v>
+        <v>0.00165660878734093</v>
       </c>
       <c r="H46">
-        <v>0.0356693860166046</v>
+        <v>0.0356693860166292</v>
       </c>
       <c r="I46">
-        <v>-0.0013248530458206</v>
+        <v>-0.00132485304576076</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -10659,28 +10659,28 @@
         <v>-5</v>
       </c>
       <c r="B47">
-        <v>0.00305102920162769</v>
+        <v>0.00305102920167674</v>
       </c>
       <c r="C47">
-        <v>-0.00069379607038099</v>
+        <v>-0.000693796070355451</v>
       </c>
       <c r="D47">
-        <v>-0.000365034808076465</v>
+        <v>-0.000365034808095756</v>
       </c>
       <c r="E47">
-        <v>0.00195989804750714</v>
+        <v>0.00195989804757528</v>
       </c>
       <c r="F47">
-        <v>-0.000546151748748461</v>
+        <v>-0.000546151748733939</v>
       </c>
       <c r="G47">
-        <v>0.000186479546721835</v>
+        <v>0.000186479546736258</v>
       </c>
       <c r="H47">
-        <v>0.0348411362465042</v>
+        <v>0.0348411362464912</v>
       </c>
       <c r="I47">
-        <v>-0.00417478345533049</v>
+        <v>-0.00417478345531593</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -10691,25 +10691,25 @@
         <v>-0.00234937119159471</v>
       </c>
       <c r="C48">
-        <v>0.00128367186067849</v>
+        <v>0.00128367186069123</v>
       </c>
       <c r="D48">
-        <v>0.00428335958863561</v>
+        <v>0.00428335958865453</v>
       </c>
       <c r="E48">
         <v>0.00290438378207516</v>
       </c>
       <c r="F48">
-        <v>-0.00250677123748883</v>
+        <v>-0.00250677123744625</v>
       </c>
       <c r="G48">
-        <v>0.00567258408893404</v>
+        <v>0.00567258408897636</v>
       </c>
       <c r="H48">
-        <v>0.0107695637638094</v>
+        <v>0.0107695637638649</v>
       </c>
       <c r="I48">
-        <v>0.00493359954633192</v>
+        <v>0.00493359954637459</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -10717,7 +10717,7 @@
         <v>-3</v>
       </c>
       <c r="B49">
-        <v>-0.000877330441583351</v>
+        <v>-0.000877330441665062</v>
       </c>
       <c r="C49">
         <v>-0.00237536873750129</v>
@@ -10729,16 +10729,16 @@
         <v>0.000100612190924191</v>
       </c>
       <c r="F49">
-        <v>0.00291829968148713</v>
+        <v>0.00291829968152888</v>
       </c>
       <c r="G49">
-        <v>-0.00172349050540885</v>
+        <v>-0.00172349050535347</v>
       </c>
       <c r="H49">
         <v>0.0390318558739298</v>
       </c>
       <c r="I49">
-        <v>-0.00022918649430134</v>
+        <v>-0.000229186494245585</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -10746,7 +10746,7 @@
         <v>-2</v>
       </c>
       <c r="B50">
-        <v>0.0033875842613645</v>
+        <v>0.00338758426134814</v>
       </c>
       <c r="C50">
         <v>-0.00176311772579625</v>
@@ -10755,19 +10755,19 @@
         <v>-0.00143741223531095</v>
       </c>
       <c r="E50">
-        <v>0.00293297895152343</v>
+        <v>0.00293297895150573</v>
       </c>
       <c r="F50">
-        <v>-0.00750788068890471</v>
+        <v>-0.00750788068889102</v>
       </c>
       <c r="G50">
-        <v>0.00341050838777794</v>
+        <v>0.00341050838779156</v>
       </c>
       <c r="H50">
         <v>0.0223984413094422</v>
       </c>
       <c r="I50">
-        <v>0.00293824939456734</v>
+        <v>0.00293824939458104</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -10775,28 +10775,28 @@
         <v>-1</v>
       </c>
       <c r="B51">
-        <v>0.00435045985439214</v>
+        <v>0.0043504598544249</v>
       </c>
       <c r="C51">
-        <v>0.00326570131466564</v>
+        <v>0.00326570131467836</v>
       </c>
       <c r="D51">
         <v>-0.000957028567605681</v>
       </c>
       <c r="E51">
-        <v>0.00377362976796564</v>
+        <v>0.00377362976798357</v>
       </c>
       <c r="F51">
-        <v>0.00360961494908612</v>
+        <v>0.00360961494912663</v>
       </c>
       <c r="G51">
-        <v>-0.00426426073552125</v>
+        <v>-0.00426426073548091</v>
       </c>
       <c r="H51">
-        <v>0.0260463141974792</v>
+        <v>0.0260463141974959</v>
       </c>
       <c r="I51">
-        <v>0.00370968532676347</v>
+        <v>0.00370968532680401</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -10804,28 +10804,28 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>-0.00206299383002345</v>
+        <v>-0.00206299383003984</v>
       </c>
       <c r="C52">
-        <v>-0.000663041623294196</v>
+        <v>-0.000663041623319662</v>
       </c>
       <c r="D52">
         <v>0.00454966639808498</v>
       </c>
       <c r="E52">
-        <v>0.00293694510256834</v>
+        <v>0.00293694510251382</v>
       </c>
       <c r="F52">
-        <v>0.00440836159867722</v>
+        <v>0.00440836159871729</v>
       </c>
       <c r="G52">
-        <v>0.00395756528667813</v>
+        <v>0.00395756528671804</v>
       </c>
       <c r="H52">
-        <v>-0.0321477050549859</v>
+        <v>-0.0321477050549333</v>
       </c>
       <c r="I52">
-        <v>0.00168689396721831</v>
+        <v>0.0016868939672584</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -10833,28 +10833,28 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>0.00449660022276431</v>
+        <v>0.00449660022273149</v>
       </c>
       <c r="C53">
-        <v>-0.000707241012937741</v>
+        <v>-0.000707241012963216</v>
       </c>
       <c r="D53">
         <v>-0.000237664833388015</v>
       </c>
       <c r="E53">
-        <v>0.00036781575617809</v>
+        <v>0.000367815756122861</v>
       </c>
       <c r="F53">
-        <v>-0.00149347278026477</v>
+        <v>-0.0014934727801853</v>
       </c>
       <c r="G53">
-        <v>-0.000414893210712593</v>
+        <v>-0.000414893210633432</v>
       </c>
       <c r="H53">
-        <v>0.0571230204410196</v>
+        <v>0.0571230204410921</v>
       </c>
       <c r="I53">
-        <v>0.000956380151508676</v>
+        <v>0.000956380151588165</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -10865,25 +10865,25 @@
         <v>0.000550197535731582</v>
       </c>
       <c r="C54">
-        <v>-0.00306738403683829</v>
+        <v>-0.00306738403682555</v>
       </c>
       <c r="D54">
         <v>-0.00345153575586902</v>
       </c>
       <c r="E54">
-        <v>0.00277744043544459</v>
+        <v>0.00277744043546324</v>
       </c>
       <c r="F54">
-        <v>0.00319259184810426</v>
+        <v>0.00319259184811743</v>
       </c>
       <c r="G54">
-        <v>-0.0021565302105255</v>
+        <v>-0.00215653021048616</v>
       </c>
       <c r="H54">
-        <v>0.0257191184058262</v>
+        <v>0.0257191184058633</v>
       </c>
       <c r="I54">
-        <v>0.00450553196038441</v>
+        <v>0.00450553196041074</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -10891,28 +10891,28 @@
         <v>3</v>
       </c>
       <c r="B55">
-        <v>-0.000153945938206869</v>
+        <v>-0.000153945938141284</v>
       </c>
       <c r="C55">
-        <v>0.00190813099174811</v>
+        <v>0.0019081309917736</v>
       </c>
       <c r="D55">
         <v>0.000882396282224732</v>
       </c>
       <c r="E55">
-        <v>0.00355122156566693</v>
+        <v>0.00355122156572361</v>
       </c>
       <c r="F55">
-        <v>-0.0010303922633037</v>
+        <v>-0.00103039226323817</v>
       </c>
       <c r="G55">
-        <v>-0.00698773190290218</v>
+        <v>-0.00698773190283689</v>
       </c>
       <c r="H55">
-        <v>-0.0217835969201316</v>
+        <v>-0.0217835969200941</v>
       </c>
       <c r="I55">
-        <v>-0.0053165220674545</v>
+        <v>-0.00531652206738896</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -10932,16 +10932,16 @@
         <v>-0.00464607188492621</v>
       </c>
       <c r="F56">
-        <v>0.00385754467424617</v>
+        <v>0.00385754467425925</v>
       </c>
       <c r="G56">
-        <v>-0.000256229589432877</v>
+        <v>-0.00025622958941985</v>
       </c>
       <c r="H56">
-        <v>-0.00668638643152052</v>
+        <v>-0.00668638643150176</v>
       </c>
       <c r="I56">
-        <v>0.00347321800010665</v>
+        <v>0.00347321800011973</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -10949,7 +10949,7 @@
         <v>5</v>
       </c>
       <c r="B57">
-        <v>-0.00363442943250728</v>
+        <v>-0.00363442943252365</v>
       </c>
       <c r="C57">
         <v>-0.00156700915976618</v>
@@ -10961,16 +10961,16 @@
         <v>0.00517460234111161</v>
       </c>
       <c r="F57">
-        <v>-0.0068868021927526</v>
+        <v>-0.00688680219268722</v>
       </c>
       <c r="G57">
-        <v>-0.00726184414991332</v>
+        <v>-0.00726184414986122</v>
       </c>
       <c r="H57">
-        <v>0.0214348446454148</v>
+        <v>0.0214348446454335</v>
       </c>
       <c r="I57">
-        <v>0.00717186161940248</v>
+        <v>0.00717186161946784</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -10978,7 +10978,7 @@
         <v>6</v>
       </c>
       <c r="B58">
-        <v>0.00178278350643204</v>
+        <v>0.00178278350639933</v>
       </c>
       <c r="C58">
         <v>-0.000593529936474556</v>
@@ -10987,19 +10987,19 @@
         <v>-0.000112482586405322</v>
       </c>
       <c r="E58">
-        <v>-0.00364593610825734</v>
+        <v>-0.00364593610827709</v>
       </c>
       <c r="F58">
-        <v>-0.00714919915992183</v>
+        <v>-0.00714919915988252</v>
       </c>
       <c r="G58">
-        <v>-0.00474765181928702</v>
+        <v>-0.00474765181924787</v>
       </c>
       <c r="H58">
-        <v>-0.058919390463</v>
+        <v>-0.0589193904629631</v>
       </c>
       <c r="I58">
-        <v>0.000456541319110419</v>
+        <v>0.000456541319149724</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -11019,16 +11019,16 @@
         <v>0.0045757564541729</v>
       </c>
       <c r="F59">
-        <v>0.0047540458397244</v>
+        <v>0.00475404583976389</v>
       </c>
       <c r="G59">
-        <v>-0.00662052035864079</v>
+        <v>-0.00662052035860146</v>
       </c>
       <c r="H59">
         <v>0.0781591654417015</v>
       </c>
       <c r="I59">
-        <v>-0.001500814400508</v>
+        <v>-0.00150081440046851</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -11048,16 +11048,16 @@
         <v>0.00455585027348462</v>
       </c>
       <c r="F60">
-        <v>-0.00356375441430433</v>
+        <v>-0.00356375441429107</v>
       </c>
       <c r="G60">
         <v>-0.00132516870186098</v>
       </c>
       <c r="H60">
-        <v>0.024092538706251</v>
+        <v>0.0240925387062687</v>
       </c>
       <c r="I60">
-        <v>-0.00319108239503947</v>
+        <v>-0.0031910823950262</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -11065,28 +11065,28 @@
         <v>9</v>
       </c>
       <c r="B61">
-        <v>-0.00368017632063534</v>
+        <v>-0.00368017632061888</v>
       </c>
       <c r="C61">
-        <v>-0.00171512798483771</v>
+        <v>-0.00171512798482478</v>
       </c>
       <c r="D61">
-        <v>0.000539421329650291</v>
+        <v>0.000539421329666809</v>
       </c>
       <c r="E61">
         <v>0.000945601058231628</v>
       </c>
       <c r="F61">
-        <v>-0.0043844230581678</v>
+        <v>-0.0043844230581544</v>
       </c>
       <c r="G61">
-        <v>-0.00616013296074148</v>
+        <v>-0.00616013296072813</v>
       </c>
       <c r="H61">
-        <v>0.0595411039255862</v>
+        <v>0.0595411039256035</v>
       </c>
       <c r="I61">
-        <v>0.00605898706562509</v>
+        <v>0.00605898706563851</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -11097,25 +11097,25 @@
         <v>0.00410071647912081</v>
       </c>
       <c r="C62">
-        <v>0.00268319256347141</v>
+        <v>0.00268319256349748</v>
       </c>
       <c r="D62">
         <v>-0.00458284495240528</v>
       </c>
       <c r="E62">
-        <v>0.00326770043552234</v>
+        <v>0.00326770043558564</v>
       </c>
       <c r="F62">
-        <v>0.00622790756210826</v>
+        <v>0.00622790756217626</v>
       </c>
       <c r="G62">
-        <v>-0.00291061344503202</v>
+        <v>-0.00291061344497783</v>
       </c>
       <c r="H62">
-        <v>-0.0619603716028529</v>
+        <v>-0.0619603716028696</v>
       </c>
       <c r="I62">
-        <v>-0.00257215294218569</v>
+        <v>-0.00257215294211759</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -11123,28 +11123,28 @@
         <v>11</v>
       </c>
       <c r="B63">
-        <v>0.00115404067373848</v>
+        <v>0.00115404067372176</v>
       </c>
       <c r="C63">
-        <v>-0.00295666924583251</v>
+        <v>-0.00295666924584568</v>
       </c>
       <c r="D63">
-        <v>0.00205654514868268</v>
+        <v>0.00205654514866596</v>
       </c>
       <c r="E63">
-        <v>-0.0049672960710614</v>
+        <v>-0.00496729607108279</v>
       </c>
       <c r="F63">
-        <v>-0.00532537147565176</v>
+        <v>-0.0053253714756102</v>
       </c>
       <c r="G63">
-        <v>0.00716326003030734</v>
+        <v>0.00716326003034874</v>
       </c>
       <c r="H63">
-        <v>0.0616815799298726</v>
+        <v>0.0616815799298566</v>
       </c>
       <c r="I63">
-        <v>-0.00180363331195864</v>
+        <v>-0.00180363331191699</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -11155,25 +11155,25 @@
         <v>0.00232304537876977</v>
       </c>
       <c r="C64">
-        <v>0.00076736942542237</v>
+        <v>0.000767369425435717</v>
       </c>
       <c r="D64">
-        <v>-0.00422920501437038</v>
+        <v>-0.00422920501438734</v>
       </c>
       <c r="E64">
-        <v>-0.000105143613937601</v>
+        <v>-0.000105143613894338</v>
       </c>
       <c r="F64">
         <v>0.00306883151150501</v>
       </c>
       <c r="G64">
-        <v>0.00506343234612137</v>
+        <v>0.00506343234613549</v>
       </c>
       <c r="H64">
-        <v>-0.0489501160985911</v>
+        <v>-0.0489501160985451</v>
       </c>
       <c r="I64">
-        <v>0.00517735874478375</v>
+        <v>0.00517735874479796</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -11181,28 +11181,28 @@
         <v>13</v>
       </c>
       <c r="B65">
-        <v>-0.00386978061930267</v>
+        <v>-0.00386978061937135</v>
       </c>
       <c r="C65">
-        <v>-0.000843495736569769</v>
+        <v>-0.000843495736610453</v>
       </c>
       <c r="D65">
-        <v>-0.00359640135383276</v>
+        <v>-0.00359640135388469</v>
       </c>
       <c r="E65">
-        <v>-0.000216465057351841</v>
+        <v>-0.000216465057395486</v>
       </c>
       <c r="F65">
-        <v>-0.00341803675376219</v>
+        <v>-0.00341803675373306</v>
       </c>
       <c r="G65">
-        <v>0.00216681189843371</v>
+        <v>0.00216681189844822</v>
       </c>
       <c r="H65">
-        <v>0.0241254345934355</v>
+        <v>0.0241254345934648</v>
       </c>
       <c r="I65">
-        <v>-7.13086690260814e-05</v>
+        <v>-7.13086690114587e-05</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -11219,7 +11219,7 @@
         <v>0.00180906575218602</v>
       </c>
       <c r="E66">
-        <v>-0.00530133444684954</v>
+        <v>-0.00530133444687152</v>
       </c>
       <c r="F66">
         <v>0.00101681178059322</v>
@@ -11248,19 +11248,19 @@
         <v>0.000546824179325428</v>
       </c>
       <c r="E67">
-        <v>0.000902763501186453</v>
+        <v>0.000902763501164357</v>
       </c>
       <c r="F67">
-        <v>-0.00794526788567262</v>
+        <v>-0.00794526788564144</v>
       </c>
       <c r="G67">
-        <v>0.00600047812769434</v>
+        <v>0.0060004781277254</v>
       </c>
       <c r="H67">
-        <v>0.0379584202162292</v>
+        <v>0.0379584202162156</v>
       </c>
       <c r="I67">
-        <v>-0.0064745148188536</v>
+        <v>-0.00647451481882222</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -11271,25 +11271,25 @@
         <v>-0.00424350706717825</v>
       </c>
       <c r="C68">
-        <v>0.00358925591374877</v>
+        <v>0.00358925591373431</v>
       </c>
       <c r="D68">
         <v>0.00402455432359168</v>
       </c>
       <c r="E68">
-        <v>0.00483900925447781</v>
+        <v>0.00483900925443337</v>
       </c>
       <c r="F68">
-        <v>-0.00875497540835723</v>
+        <v>-0.00875497540832475</v>
       </c>
       <c r="G68">
-        <v>-0.00842481937115166</v>
+        <v>-0.00842481937113548</v>
       </c>
       <c r="H68">
-        <v>0.0364422604553468</v>
+        <v>0.0364422604553732</v>
       </c>
       <c r="I68">
-        <v>0.000154481847238979</v>
+        <v>0.000154481847255348</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -11297,28 +11297,28 @@
         <v>17</v>
       </c>
       <c r="B69">
-        <v>-0.00471275099837592</v>
+        <v>-0.00471275099845102</v>
       </c>
       <c r="C69">
-        <v>0.00335704109647324</v>
+        <v>0.00335704109641385</v>
       </c>
       <c r="D69">
-        <v>-0.00451151877407795</v>
+        <v>-0.00451151877415741</v>
       </c>
       <c r="E69">
-        <v>0.00474714953918559</v>
+        <v>0.00474714953916324</v>
       </c>
       <c r="F69">
-        <v>-0.0081112163173111</v>
+        <v>-0.00811121631726014</v>
       </c>
       <c r="G69">
-        <v>-0.00249018217132019</v>
+        <v>-0.00249018217128635</v>
       </c>
       <c r="H69">
-        <v>0.00156242130860759</v>
+        <v>0.00156242130862059</v>
       </c>
       <c r="I69">
-        <v>-0.00113941095618232</v>
+        <v>-0.00113941095614803</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -11326,28 +11326,28 @@
         <v>18</v>
       </c>
       <c r="B70">
-        <v>-0.00083243199223395</v>
+        <v>-0.000832431992214618</v>
       </c>
       <c r="C70">
-        <v>-0.00159545209061613</v>
+        <v>-0.00159545209066199</v>
       </c>
       <c r="D70">
         <v>-0.0054731309429644</v>
       </c>
       <c r="E70">
-        <v>-3.73283882876831e-05</v>
+        <v>-3.73283883665623e-05</v>
       </c>
       <c r="F70">
-        <v>-0.00789387710349262</v>
+        <v>-0.00789387710347479</v>
       </c>
       <c r="G70">
-        <v>0.00409403071425033</v>
+        <v>0.00409403071426809</v>
       </c>
       <c r="H70">
-        <v>-0.0512131079242081</v>
+        <v>-0.0512131079241823</v>
       </c>
       <c r="I70">
-        <v>-0.00822491012942656</v>
+        <v>-0.00822491012940853</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -11355,7 +11355,7 @@
         <v>19</v>
       </c>
       <c r="B71">
-        <v>-0.00556071637041748</v>
+        <v>-0.00556071637039753</v>
       </c>
       <c r="C71">
         <v>0.000133142235806608</v>
@@ -11367,16 +11367,16 @@
         <v>-7.33383940737962e-06</v>
       </c>
       <c r="F71">
-        <v>0.0101727132386181</v>
+        <v>0.0101727132386369</v>
       </c>
       <c r="G71">
-        <v>0.00815836349360924</v>
+        <v>0.00815836349362796</v>
       </c>
       <c r="H71">
         <v>-0.033907434502188</v>
       </c>
       <c r="I71">
-        <v>0.000985490258516884</v>
+        <v>0.000985490258535914</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -11396,16 +11396,16 @@
         <v>0.00272088565797292</v>
       </c>
       <c r="F72">
-        <v>-0.00434312416549663</v>
+        <v>-0.0043431241654569</v>
       </c>
       <c r="G72">
-        <v>0.0011600437357406</v>
+        <v>0.00116004373578017</v>
       </c>
       <c r="H72">
-        <v>-0.0270581457862643</v>
+        <v>-0.027058145786225</v>
       </c>
       <c r="I72">
-        <v>0.00183584043997359</v>
+        <v>0.00183584044001389</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -11413,28 +11413,28 @@
         <v>21</v>
       </c>
       <c r="B73">
-        <v>-0.00126034930888188</v>
+        <v>-0.00126034930883914</v>
       </c>
       <c r="C73">
-        <v>0.00458895264526859</v>
+        <v>0.00458895264530232</v>
       </c>
       <c r="D73">
         <v>0.00363074233312915</v>
       </c>
       <c r="E73">
-        <v>0.00593592609264909</v>
+        <v>0.00593592609270775</v>
       </c>
       <c r="F73">
-        <v>-0.00269340325001124</v>
+        <v>-0.00269340324992698</v>
       </c>
       <c r="G73">
-        <v>0.0115204836138193</v>
+        <v>0.0115204836139032</v>
       </c>
       <c r="H73">
-        <v>0.0559108627369435</v>
+        <v>0.0559108627369569</v>
       </c>
       <c r="I73">
-        <v>0.00130330949249761</v>
+        <v>0.00130330949258317</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -11442,25 +11442,25 @@
         <v>22</v>
       </c>
       <c r="B74">
-        <v>0.00510268078230454</v>
+        <v>0.00510268078234889</v>
       </c>
       <c r="C74">
-        <v>0.00369985062076775</v>
+        <v>0.00369985062078524</v>
       </c>
       <c r="D74">
         <v>-0.00334171164367481</v>
       </c>
       <c r="E74">
-        <v>0.0032444819386595</v>
+        <v>0.00324448193870738</v>
       </c>
       <c r="F74">
         <v>-0.0104251442395604</v>
       </c>
       <c r="G74">
-        <v>-0.0114282899820472</v>
+        <v>-0.0114282899820361</v>
       </c>
       <c r="H74">
-        <v>-0.0262180106065419</v>
+        <v>-0.0262180106064732</v>
       </c>
       <c r="I74">
         <v>-0.00502432672486055</v>
@@ -11471,28 +11471,28 @@
         <v>23</v>
       </c>
       <c r="B75">
-        <v>0.00379465255416351</v>
+        <v>0.00379465255424415</v>
       </c>
       <c r="C75">
-        <v>0.00137912308324764</v>
+        <v>0.00137912308330209</v>
       </c>
       <c r="D75">
         <v>-0.00487177092527342</v>
       </c>
       <c r="E75">
-        <v>0.00553374782521446</v>
+        <v>0.00553374782531246</v>
       </c>
       <c r="F75">
-        <v>0.00754777742389323</v>
+        <v>0.00754777742394091</v>
       </c>
       <c r="G75">
-        <v>-0.0109997743693471</v>
+        <v>-0.0109997743693233</v>
       </c>
       <c r="H75">
-        <v>-0.0149504711348663</v>
+        <v>-0.0149504711348093</v>
       </c>
       <c r="I75">
-        <v>-0.0103616620487488</v>
+        <v>-0.0103616620487124</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -11503,25 +11503,25 @@
         <v>-0.000171334168888571</v>
       </c>
       <c r="C76">
-        <v>-0.00500389878647185</v>
+        <v>-0.00500389878643413</v>
       </c>
       <c r="D76">
         <v>-0.00478711909088593</v>
       </c>
       <c r="E76">
-        <v>-0.00531790115782925</v>
+        <v>-0.00531790115777895</v>
       </c>
       <c r="F76">
-        <v>-0.00431869628354232</v>
+        <v>-0.00431869628347873</v>
       </c>
       <c r="G76">
-        <v>0.0140407369878891</v>
+        <v>0.014040736987965</v>
       </c>
       <c r="H76">
         <v>-0.00862630045787642</v>
       </c>
       <c r="I76">
-        <v>0.00746865269889228</v>
+        <v>0.00746865269897002</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -11529,7 +11529,7 @@
         <v>25</v>
       </c>
       <c r="B77">
-        <v>0.00683214012450038</v>
+        <v>0.00683214012447542</v>
       </c>
       <c r="C77">
         <v>-0.00136607577420751</v>
@@ -11538,7 +11538,7 @@
         <v>0.00244799723961097</v>
       </c>
       <c r="E77">
-        <v>0.00146059617821722</v>
+        <v>0.00146059617819132</v>
       </c>
       <c r="F77">
         <v>-0.00940829956799398</v>
@@ -11547,7 +11547,7 @@
         <v>-0.0104231291839957</v>
       </c>
       <c r="H77">
-        <v>0.0127233015830904</v>
+        <v>0.0127233015831373</v>
       </c>
       <c r="I77">
         <v>-0.00124606216241619</v>
@@ -11558,28 +11558,28 @@
         <v>26</v>
       </c>
       <c r="B78">
-        <v>0.00605818400517184</v>
+        <v>0.00605818400518484</v>
       </c>
       <c r="C78">
-        <v>0.000765540388886977</v>
+        <v>0.000765540388866559</v>
       </c>
       <c r="D78">
-        <v>0.00341423019204435</v>
+        <v>0.00341423019198107</v>
       </c>
       <c r="E78">
-        <v>0.0030502275046054</v>
+        <v>0.00305022750463213</v>
       </c>
       <c r="F78">
-        <v>-0.00726493885365227</v>
+        <v>-0.00726493885362321</v>
       </c>
       <c r="G78">
-        <v>0.00173624822756616</v>
+        <v>0.00173624822760954</v>
       </c>
       <c r="H78">
-        <v>0.0593697483028421</v>
+        <v>0.0593697483028916</v>
       </c>
       <c r="I78">
-        <v>-0.0153741894076054</v>
+        <v>-0.0153741894075609</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -11587,13 +11587,13 @@
         <v>27</v>
       </c>
       <c r="B79">
-        <v>0.000823959841662083</v>
+        <v>0.000823959841634967</v>
       </c>
       <c r="C79">
-        <v>-0.00489600887579588</v>
+        <v>-0.00489600887581715</v>
       </c>
       <c r="D79">
-        <v>0.00325210820230882</v>
+        <v>0.00325210820224231</v>
       </c>
       <c r="E79">
         <v>0.00397087889755778</v>
@@ -11605,7 +11605,7 @@
         <v>0.00936502054620067</v>
       </c>
       <c r="H79">
-        <v>-0.0337136721348859</v>
+        <v>-0.0337136721348684</v>
       </c>
       <c r="I79">
         <v>0.0150384893159067</v>
@@ -11625,19 +11625,19 @@
         <v>-0.00335069392026549</v>
       </c>
       <c r="E80">
-        <v>0.00591332608972107</v>
+        <v>0.0059133260897354</v>
       </c>
       <c r="F80">
-        <v>-0.0114935974356581</v>
+        <v>-0.0114935974356082</v>
       </c>
       <c r="G80">
-        <v>-0.0159621074241779</v>
+        <v>-0.0159621074241282</v>
       </c>
       <c r="H80">
-        <v>0.00555935863419683</v>
+        <v>0.00555935863423414</v>
       </c>
       <c r="I80">
-        <v>-0.0106855154949802</v>
+        <v>-0.0106855154949292</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -11645,28 +11645,28 @@
         <v>29</v>
       </c>
       <c r="B81">
-        <v>0.00119056510696437</v>
+        <v>0.00119056510697912</v>
       </c>
       <c r="C81">
-        <v>-0.00177313216199489</v>
+        <v>-0.00177313216200643</v>
       </c>
       <c r="D81">
-        <v>-0.00961827204757302</v>
+        <v>-0.00961827204760958</v>
       </c>
       <c r="E81">
         <v>0.00554706770581489</v>
       </c>
       <c r="F81">
-        <v>-0.0086769774609066</v>
+        <v>-0.00867697746083534</v>
       </c>
       <c r="G81">
-        <v>-0.0013208634504101</v>
+        <v>-0.00132086345033918</v>
       </c>
       <c r="H81">
-        <v>-0.0402061720184255</v>
+        <v>-0.0402061720184455</v>
       </c>
       <c r="I81">
-        <v>0.0125372283904613</v>
+        <v>0.012537228390534</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -11674,16 +11674,16 @@
         <v>30</v>
       </c>
       <c r="B82">
-        <v>-0.00691763435030123</v>
+        <v>-0.00691763435027043</v>
       </c>
       <c r="C82">
-        <v>-0.000237527828308248</v>
+        <v>-0.00023752782829622</v>
       </c>
       <c r="D82">
         <v>0.0102771540835073</v>
       </c>
       <c r="E82">
-        <v>-0.00738147962669875</v>
+        <v>-0.00738147962666779</v>
       </c>
       <c r="F82">
         <v>-0.00956644065790808</v>
@@ -11692,7 +11692,7 @@
         <v>0.0106446188276938</v>
       </c>
       <c r="H82">
-        <v>-0.0933953245551026</v>
+        <v>-0.0933953245550812</v>
       </c>
       <c r="I82">
         <v>-0.0062773276923152</v>
@@ -11703,28 +11703,28 @@
         <v>31</v>
       </c>
       <c r="B83">
-        <v>0.00419587086324541</v>
+        <v>0.00419587086313291</v>
       </c>
       <c r="C83">
-        <v>0.00371498385639862</v>
+        <v>0.00371498385633594</v>
       </c>
       <c r="D83">
-        <v>-0.00407066348771917</v>
+        <v>-0.00407066348767924</v>
       </c>
       <c r="E83">
-        <v>0.00267509251598631</v>
+        <v>0.00267509251585743</v>
       </c>
       <c r="F83">
-        <v>0.0129419613000834</v>
+        <v>0.012941961300063</v>
       </c>
       <c r="G83">
-        <v>0.00252430097144744</v>
+        <v>0.00252430097142713</v>
       </c>
       <c r="H83">
-        <v>-0.0777669388145179</v>
+        <v>-0.0777669388144375</v>
       </c>
       <c r="I83">
-        <v>-0.00407299888353016</v>
+        <v>-0.00407299888355098</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -11732,28 +11732,28 @@
         <v>32</v>
       </c>
       <c r="B84">
-        <v>0.00148174968084016</v>
+        <v>0.00148174968082339</v>
       </c>
       <c r="C84">
-        <v>-0.00234470531764799</v>
+        <v>-0.00234470531767413</v>
       </c>
       <c r="D84">
-        <v>-0.0053168992397248</v>
+        <v>-0.00531689923974562</v>
       </c>
       <c r="E84">
-        <v>-0.00534326890424093</v>
+        <v>-0.00534326890425772</v>
       </c>
       <c r="F84">
-        <v>-0.00928090736259412</v>
+        <v>-0.00928090736263777</v>
       </c>
       <c r="G84">
-        <v>-0.00457142996767938</v>
+        <v>-0.0045714299677011</v>
       </c>
       <c r="H84">
-        <v>0.0822885521322747</v>
+        <v>0.082288552132324</v>
       </c>
       <c r="I84">
-        <v>-0.00396414981940872</v>
+        <v>-0.00396414981944212</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -11761,28 +11761,28 @@
         <v>33</v>
       </c>
       <c r="B85">
-        <v>0.00180157327903392</v>
+        <v>0.00180157327908643</v>
       </c>
       <c r="C85">
         <v>-0.00465143593909555</v>
       </c>
       <c r="D85">
-        <v>-0.00779285803547938</v>
+        <v>-0.00779285803554441</v>
       </c>
       <c r="E85">
-        <v>-0.00764443493126844</v>
+        <v>-0.00764443493123343</v>
       </c>
       <c r="F85">
-        <v>-0.00916919961896414</v>
+        <v>-0.00916919961891749</v>
       </c>
       <c r="G85">
-        <v>0.0128473138632113</v>
+        <v>0.012847313863281</v>
       </c>
       <c r="H85">
-        <v>-0.0174868200766009</v>
+        <v>-0.0174868200765742</v>
       </c>
       <c r="I85">
-        <v>0.0142307793759129</v>
+        <v>0.0142307793759724</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -11808,7 +11808,7 @@
         <v>0.0260963058332387</v>
       </c>
       <c r="H86">
-        <v>0.102294060265244</v>
+        <v>0.102294060265229</v>
       </c>
       <c r="I86">
         <v>0.0172157433610281</v>
@@ -11819,16 +11819,16 @@
         <v>35</v>
       </c>
       <c r="B87">
-        <v>0.00144750495831938</v>
+        <v>0.00144750495828128</v>
       </c>
       <c r="C87">
-        <v>-0.00686776043652024</v>
+        <v>-0.00686776043654981</v>
       </c>
       <c r="D87">
         <v>-0.01237925076221</v>
       </c>
       <c r="E87">
-        <v>0.00354218558528703</v>
+        <v>0.00354218558524891</v>
       </c>
       <c r="F87">
         <v>-0.0123223302042488</v>
@@ -11837,7 +11837,7 @@
         <v>-0.00345441208468952</v>
       </c>
       <c r="H87">
-        <v>-0.0520832065961936</v>
+        <v>-0.052083206596147</v>
       </c>
       <c r="I87">
         <v>0.0225913739670015</v>
@@ -11848,7 +11848,7 @@
         <v>36</v>
       </c>
       <c r="B88">
-        <v>-0.0100942516685321</v>
+        <v>-0.0100942516685122</v>
       </c>
       <c r="C88">
         <v>0.00134806882715743</v>
@@ -11857,19 +11857,19 @@
         <v>-0.000178159095448335</v>
       </c>
       <c r="E88">
-        <v>0.00171594185676631</v>
+        <v>0.00171594185678621</v>
       </c>
       <c r="F88">
         <v>0.0311083350733934</v>
       </c>
       <c r="G88">
-        <v>0.00218597309900256</v>
+        <v>0.00218597309901666</v>
       </c>
       <c r="H88">
         <v>0.0528393469957152</v>
       </c>
       <c r="I88">
-        <v>-0.0114587773199153</v>
+        <v>-0.0114587773199009</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -11889,16 +11889,16 @@
         <v>-0.00238900738463438</v>
       </c>
       <c r="F89">
-        <v>0.00992585109953781</v>
+        <v>0.00992585109944732</v>
       </c>
       <c r="G89">
-        <v>0.00804306315374854</v>
+        <v>0.00804306315365847</v>
       </c>
       <c r="H89">
-        <v>0.142619754177384</v>
+        <v>0.142619754177403</v>
       </c>
       <c r="I89">
-        <v>0.00191649141111279</v>
+        <v>0.00191649141102073</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -11906,16 +11906,16 @@
         <v>38</v>
       </c>
       <c r="B90">
-        <v>-0.00204354836740496</v>
+        <v>-0.00204354836736179</v>
       </c>
       <c r="C90">
-        <v>0.00663156042686096</v>
+        <v>0.00663156042689434</v>
       </c>
       <c r="D90">
         <v>0.000746880771971845</v>
       </c>
       <c r="E90">
-        <v>-0.00523835061725667</v>
+        <v>-0.00523835061721329</v>
       </c>
       <c r="F90">
         <v>0.0113447822392833</v>
@@ -11924,7 +11924,7 @@
         <v>-0.0295396651559588</v>
       </c>
       <c r="H90">
-        <v>-0.165003884114689</v>
+        <v>-0.16500388411461</v>
       </c>
       <c r="I90">
         <v>0.0277079003517297</v>
@@ -11947,16 +11947,16 @@
         <v>-0.00592464715437513</v>
       </c>
       <c r="F91">
-        <v>-0.00448327750174594</v>
+        <v>-0.00448327750178003</v>
       </c>
       <c r="G91">
-        <v>-0.010276552463963</v>
+        <v>-0.0102765524639799</v>
       </c>
       <c r="H91">
-        <v>0.143037067151813</v>
+        <v>0.143037067151855</v>
       </c>
       <c r="I91">
-        <v>0.0232372496765166</v>
+        <v>0.023237249676482</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -11964,28 +11964,28 @@
         <v>40</v>
       </c>
       <c r="B92">
-        <v>0.0117278209000173</v>
+        <v>0.011727820900029</v>
       </c>
       <c r="C92">
-        <v>0.00486168790694572</v>
+        <v>0.00486168790698183</v>
       </c>
       <c r="D92">
-        <v>-0.00430528222225343</v>
+        <v>-0.00430528222218342</v>
       </c>
       <c r="E92">
         <v>-0.00609662723112732</v>
       </c>
       <c r="F92">
-        <v>-0.00387909897518353</v>
+        <v>-0.00387909897516545</v>
       </c>
       <c r="G92">
-        <v>0.0323865353904998</v>
+        <v>0.0323865353905358</v>
       </c>
       <c r="H92">
-        <v>-0.053412194512648</v>
+        <v>-0.0534121945125566</v>
       </c>
       <c r="I92">
-        <v>0.0207656647111735</v>
+        <v>0.0207656647111919</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -11993,28 +11993,28 @@
         <v>41</v>
       </c>
       <c r="B93">
-        <v>-0.0114147178810116</v>
+        <v>-0.0114147178809507</v>
       </c>
       <c r="C93">
-        <v>-0.00662323204017784</v>
+        <v>-0.00662323204014029</v>
       </c>
       <c r="D93">
         <v>-4.8634788496311e-06</v>
       </c>
       <c r="E93">
-        <v>-0.00989108311954454</v>
+        <v>-0.00989108311947057</v>
       </c>
       <c r="F93">
-        <v>-0.0279738572235607</v>
+        <v>-0.0279738572235415</v>
       </c>
       <c r="G93">
-        <v>-0.0277640345580804</v>
+        <v>-0.0277640345580423</v>
       </c>
       <c r="H93">
         <v>-0.0378760252122047</v>
       </c>
       <c r="I93">
-        <v>-0.0232684864395019</v>
+        <v>-0.023268486439463</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -12025,25 +12025,25 @@
         <v>0.00378618627163094</v>
       </c>
       <c r="C94">
-        <v>0.00461364589886289</v>
+        <v>0.00461364589884338</v>
       </c>
       <c r="D94">
-        <v>0.000353400755381261</v>
+        <v>0.000353400755336328</v>
       </c>
       <c r="E94">
         <v>0.00508319793474044</v>
       </c>
       <c r="F94">
-        <v>-0.0334669231879737</v>
+        <v>-0.0334669231880751</v>
       </c>
       <c r="G94">
-        <v>0.0199254948219888</v>
+        <v>0.0199254948218878</v>
       </c>
       <c r="H94">
-        <v>0.19397581235282</v>
+        <v>0.193975812352913</v>
       </c>
       <c r="I94">
-        <v>0.0261497665954436</v>
+        <v>0.0261497665953408</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -12051,28 +12051,28 @@
         <v>43</v>
       </c>
       <c r="B95">
-        <v>-0.00833360641473677</v>
+        <v>-0.00833360641469722</v>
       </c>
       <c r="C95">
-        <v>0.00842790939270543</v>
+        <v>0.00842790939274597</v>
       </c>
       <c r="D95">
-        <v>-0.0165284289174955</v>
+        <v>-0.0165284289174646</v>
       </c>
       <c r="E95">
-        <v>0.00342248096260705</v>
+        <v>0.00342248096264726</v>
       </c>
       <c r="F95">
-        <v>0.0369296927128261</v>
+        <v>0.036929692712676</v>
       </c>
       <c r="G95">
-        <v>-0.0401746732493955</v>
+        <v>-0.0401746732495451</v>
       </c>
       <c r="H95">
-        <v>0.121336545841268</v>
+        <v>0.121336545841282</v>
       </c>
       <c r="I95">
-        <v>0.0455784428079859</v>
+        <v>0.0455784428078338</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -12080,28 +12080,28 @@
         <v>44</v>
       </c>
       <c r="B96">
-        <v>-0.000584778700738266</v>
+        <v>-0.000584778700765671</v>
       </c>
       <c r="C96">
-        <v>-0.006297784157609</v>
+        <v>-0.00629778415763004</v>
       </c>
       <c r="D96">
         <v>0.00825236871916879</v>
       </c>
       <c r="E96">
-        <v>0.00548160708153669</v>
+        <v>0.00548160708149478</v>
       </c>
       <c r="F96">
-        <v>-0.0496724849829543</v>
+        <v>-0.049672484982909</v>
       </c>
       <c r="G96">
-        <v>0.0363836929156253</v>
+        <v>0.0363836929156704</v>
       </c>
       <c r="H96">
-        <v>0.169465491342088</v>
+        <v>0.169465491342104</v>
       </c>
       <c r="I96">
-        <v>-0.0113631322412569</v>
+        <v>-0.0113631322412111</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -12127,7 +12127,7 @@
         <v>0.0183269981754446</v>
       </c>
       <c r="H97">
-        <v>-0.291357418602698</v>
+        <v>-0.291357418602631</v>
       </c>
       <c r="I97">
         <v>0.0211723664743769</v>
@@ -12138,28 +12138,28 @@
         <v>46</v>
       </c>
       <c r="B98">
-        <v>0.00476132923612856</v>
+        <v>0.00476132923608422</v>
       </c>
       <c r="C98">
-        <v>0.0107606549227808</v>
+        <v>0.0107606549227581</v>
       </c>
       <c r="D98">
         <v>0.00526501297451919</v>
       </c>
       <c r="E98">
-        <v>0.0152690413567022</v>
+        <v>0.0152690413566719</v>
       </c>
       <c r="F98">
-        <v>0.0522998160996314</v>
+        <v>0.0522998160995057</v>
       </c>
       <c r="G98">
-        <v>-0.0364399666469809</v>
+        <v>-0.0364399666471063</v>
       </c>
       <c r="H98">
-        <v>-0.145513960281154</v>
+        <v>-0.145513960281172</v>
       </c>
       <c r="I98">
-        <v>0.00558717813338951</v>
+        <v>0.0055871781332622</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -12167,28 +12167,28 @@
         <v>47</v>
       </c>
       <c r="B99">
-        <v>0.0130770855391636</v>
+        <v>0.0130770855391329</v>
       </c>
       <c r="C99">
         <v>-0.00125633222426026</v>
       </c>
       <c r="D99">
-        <v>-0.00431864843912421</v>
+        <v>-0.00431864843914182</v>
       </c>
       <c r="E99">
         <v>0.00112237910147073</v>
       </c>
       <c r="F99">
-        <v>-0.0452008770390154</v>
+        <v>-0.0452008770390816</v>
       </c>
       <c r="G99">
-        <v>-0.051942061219696</v>
+        <v>-0.0519420612197752</v>
       </c>
       <c r="H99">
-        <v>-0.00241351714093153</v>
+        <v>-0.0024135171408737</v>
       </c>
       <c r="I99">
-        <v>0.0183344692048954</v>
+        <v>0.0183344692048151</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -12196,28 +12196,28 @@
         <v>48</v>
       </c>
       <c r="B100">
-        <v>-0.00128914481813915</v>
+        <v>-0.00128914481817098</v>
       </c>
       <c r="C100">
-        <v>0.00292058926922054</v>
+        <v>0.00292058926920837</v>
       </c>
       <c r="D100">
-        <v>-0.00328330183672181</v>
+        <v>-0.00328330183675816</v>
       </c>
       <c r="E100">
         <v>0.0182241802781185</v>
       </c>
       <c r="F100">
-        <v>-0.0180949251896105</v>
+        <v>-0.018094925189708</v>
       </c>
       <c r="G100">
-        <v>-0.0572638406852819</v>
+        <v>-0.057263840685379</v>
       </c>
       <c r="H100">
-        <v>0.0736296414519535</v>
+        <v>0.0736296414519328</v>
       </c>
       <c r="I100">
-        <v>0.0291708915229991</v>
+        <v>0.0291708915229007</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -12231,22 +12231,22 @@
         <v>-0.0133655917136165</v>
       </c>
       <c r="D101">
-        <v>0.00225662904387318</v>
+        <v>0.00225662904385443</v>
       </c>
       <c r="E101">
         <v>-0.0182748829087812</v>
       </c>
       <c r="F101">
-        <v>-0.0135888650635273</v>
+        <v>-0.0135888650635566</v>
       </c>
       <c r="G101">
-        <v>0.0462644761816945</v>
+        <v>0.0462644761816654</v>
       </c>
       <c r="H101">
-        <v>0.00475523287813486</v>
+        <v>0.00475523287817926</v>
       </c>
       <c r="I101">
-        <v>0.00452227550109363</v>
+        <v>0.00452227550106411</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -12266,16 +12266,16 @@
         <v>-0.00714997325552961</v>
       </c>
       <c r="F102">
-        <v>-0.0671486143605794</v>
+        <v>-0.067148614360564</v>
       </c>
       <c r="G102">
-        <v>-0.0331439078490054</v>
+        <v>-0.0331439078489901</v>
       </c>
       <c r="H102">
-        <v>-0.301363569706256</v>
+        <v>-0.301363569706172</v>
       </c>
       <c r="I102">
-        <v>0.0469393036765832</v>
+        <v>0.0469393036765986</v>
       </c>
     </row>
   </sheetData>
